--- a/Custos para Edição.xlsx
+++ b/Custos para Edição.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\heder\Desktop\PROJETO UC13 - GRUPO 1 - ALIMENTOS\Gerenciamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cássio\Documents\SENAC\PROJETO_INTTEGRADOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F863969-04E7-4A1C-AAB9-057A7A98A491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170B25BC-6AA1-4B30-AB70-4381E41DBDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orçamento de Empresa" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Funcionários-Local-Extras-Marke'!$2:$2</definedName>
-    <definedName name="Total_da_Festa_est">Festa[[#Totals],[ESTIMADO]]</definedName>
+    <definedName name="Total_da_Festa_est">Festa[[#Totals],[ESTIMADO ANUAL]]</definedName>
     <definedName name="Total_da_Festa_real">Festa[[#Totals],[REAL]]</definedName>
     <definedName name="Total_de_Decoração_est">#REF!</definedName>
     <definedName name="Total_de_Decoração_real">#REF!</definedName>
@@ -34,7 +34,7 @@
     <definedName name="Total_de_Outras_despesas_real">#REF!</definedName>
     <definedName name="Total_de_Presentes_est">#REF!</definedName>
     <definedName name="Total_de_Presentes_real">#REF!</definedName>
-    <definedName name="Total_de_Roupas_est">Roupas[[#Totals],[ESTIMADO]]</definedName>
+    <definedName name="Total_de_Roupas_est">Roupas[[#Totals],[ESTIMADO ANUAL]]</definedName>
     <definedName name="Total_de_Roupas_real">Roupas[[#Totals],[REAL]]</definedName>
     <definedName name="Total_de_Viagem_transporte_est">#REF!</definedName>
     <definedName name="Total_de_Viagem_transporte_real">#REF!</definedName>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
   <si>
     <t>Crie um Orçamento de casamento nesta planilha. Atualize o resumo e o gráfico na planilha atual inserindo detalhes nas tabelas das planilhas Roupas-Festa-Música-Fotos e Decor-Flores-Presentes-Viagem. Instruções úteis sobre como usar esta planilha estão nas células desta coluna. O rótulo Data do casamento está na célula C1.</t>
   </si>
@@ -116,24 +116,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Insira os detalhes na tabela Roupas, começando na célula à direita. A próxima instrução está na célula A18.</t>
-  </si>
-  <si>
-    <t>CEO (Djeniffer)</t>
-  </si>
-  <si>
-    <t>CFO (Heder)</t>
-  </si>
-  <si>
-    <t>CCO (Vitor)</t>
-  </si>
-  <si>
-    <t>CTO (Aryon)</t>
-  </si>
-  <si>
-    <t>Gerência Geral</t>
-  </si>
-  <si>
-    <t>Gerência de Planejamento</t>
   </si>
   <si>
     <t>Gerência de Desenvolvimento</t>
@@ -208,9 +190,6 @@
     <t>Galpão</t>
   </si>
   <si>
-    <t>Ferramentas Operacionais</t>
-  </si>
-  <si>
     <t>Periféricos Escritório / Galpão</t>
   </si>
   <si>
@@ -226,12 +205,6 @@
     <t>Insira os detalhes na tabela Música, começando na célula à direita. A próxima instrução está na célula A37.</t>
   </si>
   <si>
-    <t xml:space="preserve">Reembolso </t>
-  </si>
-  <si>
-    <t>Gestão de Riscos</t>
-  </si>
-  <si>
     <t>Total de Gastos Extras</t>
   </si>
   <si>
@@ -269,6 +242,45 @@
   </si>
   <si>
     <t>Total de Marketing</t>
+  </si>
+  <si>
+    <t>CFO (Cássio)</t>
+  </si>
+  <si>
+    <t>A definir (Djeniffer)</t>
+  </si>
+  <si>
+    <t>A definir (Aryon)</t>
+  </si>
+  <si>
+    <t>A definir (Maxwell)</t>
+  </si>
+  <si>
+    <t>CEO (Ismael)</t>
+  </si>
+  <si>
+    <t>COO (Heder)</t>
+  </si>
+  <si>
+    <t>ESTIMADO ANUAL</t>
+  </si>
+  <si>
+    <t>Gastos com Veículos</t>
+  </si>
+  <si>
+    <t>Carro</t>
+  </si>
+  <si>
+    <t>Seguro do carro</t>
+  </si>
+  <si>
+    <t>Documentação do carro</t>
+  </si>
+  <si>
+    <t>Seguro patrimonial</t>
+  </si>
+  <si>
+    <t>uigi</t>
   </si>
 </sst>
 </file>
@@ -283,7 +295,7 @@
     <numFmt numFmtId="166" formatCode="[$-416]d\-mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Cambria"/>
@@ -526,6 +538,13 @@
       <sz val="9"/>
       <name val="Cambria"/>
       <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Cambria"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -949,7 +968,7 @@
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1045,6 +1064,31 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1069,30 +1113,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -1144,7 +1169,233 @@
     <cellStyle name="Total" xfId="5" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vírgula" xfId="8" builtinId="3" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="46">
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Cambria"/>
+        <family val="1"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1194,6 +1445,8 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1204,13 +1457,8 @@
         <family val="1"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1237,46 +1485,6 @@
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1295,183 +1503,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1564,15 +1595,15 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Orçamento de casamento" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Orçamento de casamento" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="44"/>
-      <tableStyleElement type="headerRow" dxfId="43"/>
-      <tableStyleElement type="totalRow" dxfId="42"/>
-      <tableStyleElement type="lastColumn" dxfId="41"/>
+      <tableStyleElement type="wholeTable" dxfId="45"/>
+      <tableStyleElement type="headerRow" dxfId="44"/>
+      <tableStyleElement type="totalRow" dxfId="43"/>
+      <tableStyleElement type="lastColumn" dxfId="42"/>
     </tableStyle>
     <tableStyle name="Resumo do orçamento de casamento" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="40"/>
-      <tableStyleElement type="headerRow" dxfId="39"/>
-      <tableStyleElement type="totalRow" dxfId="38"/>
+      <tableStyleElement type="wholeTable" dxfId="41"/>
+      <tableStyleElement type="headerRow" dxfId="40"/>
+      <tableStyleElement type="totalRow" dxfId="39"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1973,16 +2004,16 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>388750</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>254576</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53850</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2531,13 +2562,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ResumoDoOrçamento" displayName="ResumoDoOrçamento" ref="C6:F11" totalsRowCount="1" headerRowDxfId="7" totalsRowCellStyle="Total">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ResumoDoOrçamento" displayName="ResumoDoOrçamento" ref="C6:F11" totalsRowCount="1" headerRowDxfId="38" totalsRowCellStyle="Total">
   <autoFilter ref="C6:F10" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CATEGORIA" totalsRowLabel="Total de despesas" totalsRowDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ESTIMADO" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CATEGORIA" totalsRowLabel="Total de despesas" totalsRowDxfId="37" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ESTIMADO" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="31">
       <calculatedColumnFormula>ResumoDoOrçamento[[#This Row],[ESTIMADO]]-ResumoDoOrçamento[[#This Row],[REAL]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2559,10 +2590,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Custo¹" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ESTIMADO" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Custo¹" dataDxfId="30" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ESTIMADO ANUAL" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="8">
       <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C3-'Funcionários-Local-Extras-Marke'!$D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2584,10 +2615,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Custo" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ESTIMADO" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="23">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Custo" dataDxfId="26" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ESTIMADO ANUAL" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="0">
       <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C23-'Funcionários-Local-Extras-Marke'!$D23</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2601,18 +2632,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Música" displayName="Música" ref="B35:E38" totalsRowCount="1" totalsRowDxfId="22">
-  <autoFilter ref="B35:E37" xr:uid="{00000000-0009-0000-0100-00000E000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Música" displayName="Música" ref="B35:E39" totalsRowCount="1" totalsRowDxfId="22">
+  <autoFilter ref="B35:E38" xr:uid="{00000000-0009-0000-0100-00000E000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Gastos Extras" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="ESTIMADO" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Gastos Extras" dataDxfId="21" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="ESTIMADO" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="4">
       <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C36-'Funcionários-Local-Extras-Marke'!$D36</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2626,13 +2657,13 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Impressão" displayName="Impressão" ref="B41:E51" totalsRowCount="1" totalsRowDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Impressão" displayName="Impressão" ref="B42:E52" totalsRowCount="1" totalsRowDxfId="17">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Marketing" totalsRowDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="ESTIMADO" totalsRowFunction="sum" totalsRowDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" totalsRowDxfId="8">
-      <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C42-'Funcionários-Local-Extras-Marke'!$D42</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Marketing" totalsRowDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="ESTIMADO" totalsRowFunction="sum" totalsRowDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" totalsRowDxfId="12">
+      <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C43-'Funcionários-Local-Extras-Marke'!$D43</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Orçamento de casamento" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2913,17 +2944,17 @@
   </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="50" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="8" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="8" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2946,160 +2977,160 @@
       <c r="B2" s="5"/>
       <c r="C2" s="23">
         <f ca="1">TODAY()+365</f>
-        <v>45005</v>
+        <v>45017</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="8"/>
       <c r="F2" s="19"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="62" t="s">
+      <c r="E6" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="43" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="63">
+      <c r="D7" s="49">
         <f>Total_de_Roupas_est</f>
-        <v>326500</v>
-      </c>
-      <c r="E7" s="63">
+        <v>750000</v>
+      </c>
+      <c r="E7" s="49">
         <f>Total_de_Roupas_real</f>
-        <v>388750</v>
-      </c>
-      <c r="F7" s="59">
+        <v>0</v>
+      </c>
+      <c r="F7" s="45">
         <f>ResumoDoOrçamento[[#This Row],[ESTIMADO]]-ResumoDoOrçamento[[#This Row],[REAL]]</f>
-        <v>-62250</v>
+        <v>750000</v>
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="49">
         <f>Total_da_Festa_est</f>
-        <v>214456</v>
-      </c>
-      <c r="E8" s="63">
+        <v>87900</v>
+      </c>
+      <c r="E8" s="49">
         <f>Total_da_Festa_real</f>
-        <v>254576</v>
-      </c>
-      <c r="F8" s="59">
+        <v>0</v>
+      </c>
+      <c r="F8" s="45">
         <f>ResumoDoOrçamento[[#This Row],[ESTIMADO]]-ResumoDoOrçamento[[#This Row],[REAL]]</f>
-        <v>-40120</v>
+        <v>87900</v>
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9" s="49">
         <f>Total_de_Música_entretenimento_est</f>
-        <v>20000</v>
-      </c>
-      <c r="E9" s="63">
+        <v>0</v>
+      </c>
+      <c r="E9" s="49">
         <f>Total_de_Música_entretenimento_real</f>
-        <v>20000</v>
-      </c>
-      <c r="F9" s="59">
+        <v>0</v>
+      </c>
+      <c r="F9" s="45">
         <f>ResumoDoOrçamento[[#This Row],[ESTIMADO]]-ResumoDoOrçamento[[#This Row],[REAL]]</f>
         <v>0</v>
       </c>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="49">
         <f>Total_de_Impressão_gráfica_est</f>
-        <v>53850</v>
-      </c>
-      <c r="E10" s="63">
+        <v>0</v>
+      </c>
+      <c r="E10" s="49">
         <f>Total_de_Impressão_gráfica_real</f>
-        <v>53850</v>
-      </c>
-      <c r="F10" s="59">
+        <v>0</v>
+      </c>
+      <c r="F10" s="45">
         <f>ResumoDoOrçamento[[#This Row],[ESTIMADO]]-ResumoDoOrçamento[[#This Row],[REAL]]</f>
         <v>0</v>
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="64">
+      <c r="D11" s="50">
         <f>SUBTOTAL(109,ResumoDoOrçamento[ESTIMADO])</f>
-        <v>614806</v>
-      </c>
-      <c r="E11" s="65">
+        <v>837900</v>
+      </c>
+      <c r="E11" s="51">
         <f>SUBTOTAL(109,ResumoDoOrçamento[REAL])</f>
-        <v>717176</v>
-      </c>
-      <c r="F11" s="61">
+        <v>0</v>
+      </c>
+      <c r="F11" s="47">
         <f>SUBTOTAL(109,ResumoDoOrçamento[ACIMA/ABAIXO])</f>
-        <v>-102370</v>
+        <v>837900</v>
       </c>
       <c r="G11" s="20"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -3107,212 +3138,212 @@
       <c r="F12" s="3"/>
       <c r="G12" s="20"/>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
       <c r="G29" s="21"/>
     </row>
-    <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -3376,21 +3407,21 @@
     <tabColor theme="4" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
@@ -3404,7 +3435,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>19</v>
       </c>
@@ -3412,7 +3443,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -3424,279 +3455,279 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C3" s="31">
-        <v>25000</v>
+        <v>120000</v>
       </c>
       <c r="D3" s="31">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="E3" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C3-'Funcionários-Local-Extras-Marke'!$D3</f>
-        <v>-5000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="C4" s="31">
-        <v>23000</v>
+        <v>120000</v>
       </c>
       <c r="D4" s="31">
-        <v>27000</v>
+        <v>0</v>
       </c>
       <c r="E4" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C4-'Funcionários-Local-Extras-Marke'!$D4</f>
-        <v>-4000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C5" s="31">
-        <v>23000</v>
+        <v>120000</v>
       </c>
       <c r="D5" s="31">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="E5" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C5-'Funcionários-Local-Extras-Marke'!$D5</f>
-        <v>-2000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="30" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C6" s="31">
-        <v>23000</v>
+        <v>120000</v>
       </c>
       <c r="D6" s="31">
-        <v>27500</v>
+        <v>0</v>
       </c>
       <c r="E6" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C6-'Funcionários-Local-Extras-Marke'!$D6</f>
-        <v>-4500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="30" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C7" s="31">
-        <v>12000</v>
+        <v>120000</v>
       </c>
       <c r="D7" s="31">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="E7" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C7-'Funcionários-Local-Extras-Marke'!$D7</f>
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="30" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="C8" s="31">
-        <v>10000</v>
+        <v>150000</v>
       </c>
       <c r="D8" s="31">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="E8" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C8-'Funcionários-Local-Extras-Marke'!$D8</f>
-        <v>-2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="30" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C9" s="31">
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="D9" s="31">
-        <v>10750</v>
+        <v>0</v>
       </c>
       <c r="E9" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C9-'Funcionários-Local-Extras-Marke'!$D9</f>
-        <v>-1250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="30" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C10" s="31">
-        <v>8500</v>
+        <v>0</v>
       </c>
       <c r="D10" s="31">
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="E10" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C10-'Funcionários-Local-Extras-Marke'!$D10</f>
-        <v>-1000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="30" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C11" s="31">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="D11" s="31">
-        <v>8500</v>
+        <v>0</v>
       </c>
       <c r="E11" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C11-'Funcionários-Local-Extras-Marke'!$D11</f>
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="30" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C12" s="31">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="D12" s="31">
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="E12" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C12-'Funcionários-Local-Extras-Marke'!$D12</f>
-        <v>-5000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C13" s="31">
-        <v>4250</v>
+        <v>0</v>
       </c>
       <c r="D13" s="31">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="E13" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C13-'Funcionários-Local-Extras-Marke'!$D13</f>
-        <v>-1750</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="30" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C14" s="31">
-        <v>19250</v>
+        <v>0</v>
       </c>
       <c r="D14" s="31">
-        <v>23000</v>
+        <v>0</v>
       </c>
       <c r="E14" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C14-'Funcionários-Local-Extras-Marke'!$D14</f>
-        <v>-3750</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="30" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C15" s="31">
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="D15" s="31">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="E15" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C15-'Funcionários-Local-Extras-Marke'!$D15</f>
-        <v>-6000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="30" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C16" s="31">
-        <v>125000</v>
+        <v>0</v>
       </c>
       <c r="D16" s="31">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="E16" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C16-'Funcionários-Local-Extras-Marke'!$D16</f>
-        <v>-25000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="28" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C17" s="33">
-        <f>SUBTOTAL(109,Roupas[ESTIMADO])</f>
-        <v>326500</v>
+        <f>SUBTOTAL(109,Roupas[ESTIMADO ANUAL])</f>
+        <v>750000</v>
       </c>
       <c r="D17" s="33">
         <f>SUBTOTAL(109,Roupas[REAL])</f>
-        <v>388750</v>
+        <v>0</v>
       </c>
       <c r="E17" s="34">
         <f>SUBTOTAL(109,Roupas[ACIMA/ABAIXO])</f>
-        <v>-62250</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
-      <c r="B18" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="59"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
-      <c r="B19" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="47"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+    </row>
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="42"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="41"/>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C21" s="36"/>
       <c r="E21" s="29"/>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B22" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
@@ -3705,171 +3736,171 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="30" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C23" s="31">
-        <v>5500</v>
+        <v>30000</v>
       </c>
       <c r="D23" s="31">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="E23" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C23-'Funcionários-Local-Extras-Marke'!$D23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="30" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C24" s="31">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="D24" s="31">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E24" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C24-'Funcionários-Local-Extras-Marke'!$D24</f>
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="30" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C25" s="31">
-        <v>180</v>
+        <v>1500</v>
       </c>
       <c r="D25" s="31">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E25" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C25-'Funcionários-Local-Extras-Marke'!$D25</f>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="30" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C26" s="31">
-        <v>326</v>
+        <v>2400</v>
       </c>
       <c r="D26" s="31">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="E26" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C26-'Funcionários-Local-Extras-Marke'!$D26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="30" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C27" s="31">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="D27" s="31">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E27" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C27-'Funcionários-Local-Extras-Marke'!$D27</f>
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="30" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C28" s="31">
-        <v>7500</v>
+        <v>50000</v>
       </c>
       <c r="D28" s="31">
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="E28" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C28-'Funcionários-Local-Extras-Marke'!$D28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="31">
-        <v>150000</v>
+        <v>69</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>70</v>
       </c>
       <c r="D29" s="31">
-        <v>175000</v>
-      </c>
-      <c r="E29" s="32">
+        <v>0</v>
+      </c>
+      <c r="E29" s="32" t="e">
         <f>'Funcionários-Local-Extras-Marke'!$C29-'Funcionários-Local-Extras-Marke'!$D29</f>
-        <v>-25000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C30" s="31">
-        <v>50000</v>
+        <v>500</v>
       </c>
       <c r="D30" s="31">
-        <v>65000</v>
+        <v>0</v>
       </c>
       <c r="E30" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C30-'Funcionários-Local-Extras-Marke'!$D30</f>
-        <v>-15000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
       <c r="B31" s="28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C31" s="33">
-        <f>SUBTOTAL(109,Festa[ESTIMADO])</f>
-        <v>214456</v>
+        <f>SUBTOTAL(109,Festa[ESTIMADO ANUAL])</f>
+        <v>87900</v>
       </c>
       <c r="D31" s="33">
         <f>SUBTOTAL(109,Festa[REAL])</f>
-        <v>254576</v>
-      </c>
-      <c r="E31" s="34">
+        <v>0</v>
+      </c>
+      <c r="E31" s="34" t="e">
         <f>SUBTOTAL(109,Festa[ACIMA/ABAIXO])</f>
-        <v>-40120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="47"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="51"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="53"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="56"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="62"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="C34" s="36"/>
       <c r="E34" s="29"/>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B35" s="28" t="s">
         <v>6</v>
@@ -3884,237 +3915,248 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="30" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C36" s="31">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="D36" s="31">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="E36" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C36-'Funcionários-Local-Extras-Marke'!$D36</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="30" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C37" s="31">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="D37" s="31">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="E37" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C37-'Funcionários-Local-Extras-Marke'!$D37</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="33">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="32">
+        <f>'Funcionários-Local-Extras-Marke'!$C38-'Funcionários-Local-Extras-Marke'!$D38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="33">
         <f>SUBTOTAL(109,Música[ESTIMADO])</f>
-        <v>20000</v>
-      </c>
-      <c r="D38" s="33">
+        <v>0</v>
+      </c>
+      <c r="D39" s="33">
         <f>SUBTOTAL(109,Música[REAL])</f>
-        <v>20000</v>
-      </c>
-      <c r="E38" s="34">
+        <v>0</v>
+      </c>
+      <c r="E39" s="34">
         <f>SUBTOTAL(109,Música[ACIMA/ABAIXO])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="54"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="56"/>
-    </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="35" t="s">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="63"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="65"/>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="36"/>
-      <c r="E40" s="29"/>
-    </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="28" t="s">
+      <c r="C41" s="36"/>
+      <c r="E41" s="29"/>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>7</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="29" t="s">
+      <c r="E42" s="29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="31">
-        <v>350</v>
-      </c>
-      <c r="D42" s="31">
-        <v>350</v>
-      </c>
-      <c r="E42" s="32">
-        <f>'Funcionários-Local-Extras-Marke'!$C42-'Funcionários-Local-Extras-Marke'!$D42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="31">
-        <v>700</v>
+        <v>48</v>
+      </c>
+      <c r="C43" s="67">
+        <v>0</v>
       </c>
       <c r="D43" s="31">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E43" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C43-'Funcionários-Local-Extras-Marke'!$D43</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="30" t="s">
-        <v>59</v>
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="66" t="s">
+        <v>49</v>
       </c>
       <c r="C44" s="31">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="D44" s="31">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="E44" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C44-'Funcionários-Local-Extras-Marke'!$D44</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="30" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C45" s="31">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="D45" s="31">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="E45" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C45-'Funcionários-Local-Extras-Marke'!$D45</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="30" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C46" s="31">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="D46" s="31">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="E46" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C46-'Funcionários-Local-Extras-Marke'!$D46</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="30" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C47" s="31">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="D47" s="31">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="E47" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C47-'Funcionários-Local-Extras-Marke'!$D47</f>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="14"/>
       <c r="B48" s="30" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C48" s="31">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="D48" s="31">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="E48" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C48-'Funcionários-Local-Extras-Marke'!$D48</f>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="15"/>
       <c r="B49" s="30" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C49" s="31">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="D49" s="31">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="E49" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C49-'Funcionários-Local-Extras-Marke'!$D49</f>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="30" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C50" s="31">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="D50" s="31">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E50" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C50-'Funcionários-Local-Extras-Marke'!$D50</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" s="38">
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="31">
+        <v>0</v>
+      </c>
+      <c r="D51" s="31">
+        <v>0</v>
+      </c>
+      <c r="E51" s="32">
+        <f>'Funcionários-Local-Extras-Marke'!$C51-'Funcionários-Local-Extras-Marke'!$D51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="38">
         <f>SUBTOTAL(109,Impressão[ESTIMADO])</f>
-        <v>53850</v>
-      </c>
-      <c r="D51" s="38">
+        <v>0</v>
+      </c>
+      <c r="D52" s="38">
         <f>SUBTOTAL(109,Impressão[REAL])</f>
-        <v>53850</v>
-      </c>
-      <c r="E51" s="39">
+        <v>0</v>
+      </c>
+      <c r="E52" s="39">
         <f>SUBTOTAL(109,Impressão[ACIMA/ABAIXO])</f>
         <v>0</v>
       </c>
@@ -4124,7 +4166,7 @@
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
     <mergeCell ref="B19:E19"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
@@ -4159,7 +4201,7 @@
               <x14:cfIcon iconSet="3ArrowsGray" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E42:E50 E36:E37 E23:E30 E3:E16</xm:sqref>
+          <xm:sqref>E43:E51 E36:E38 E23:E30 E3:E16</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Custos para Edição.xlsx
+++ b/Custos para Edição.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cássio\Documents\SENAC\PROJETO_INTTEGRADOR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Publica\TI0320\Cassio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170B25BC-6AA1-4B30-AB70-4381E41DBDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376D7760-00CA-4850-A8C9-9BEAC1E0241B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Orçamento de Empresa" sheetId="1" r:id="rId1"/>
@@ -55,8 +55,36 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={423E396C-BC7A-4789-AFE6-1C43DEF629DD}</author>
+    <author>tc={4F5185A9-8010-4F61-810B-0777DA2DE50F}</author>
+  </authors>
+  <commentList>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{423E396C-BC7A-4789-AFE6-1C43DEF629DD}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    é um instrumento que integra capital e trabalho, tendo como principal objetivo o aumento da produtividade de forma que, nesta situação, a remuneração dos funcionários varia conforme o alcance das metas da organização.</t>
+      </text>
+    </comment>
+    <comment ref="C34" authorId="1" shapeId="0" xr:uid="{4F5185A9-8010-4F61-810B-0777DA2DE50F}">
+      <text>
+        <t>[Comentário encadeado]
+Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
+Comentário:
+    Nesse custo, foi feito um contrato com as montadoras para arcar com 50% do custo.
+O valor que está demonstrado é a metade que a empresa tem que arcar</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
   <si>
     <t>Crie um Orçamento de casamento nesta planilha. Atualize o resumo e o gráfico na planilha atual inserindo detalhes nas tabelas das planilhas Roupas-Festa-Música-Fotos e Decor-Flores-Presentes-Viagem. Instruções úteis sobre como usar esta planilha estão nas células desta coluna. O rótulo Data do casamento está na célula C1.</t>
   </si>
@@ -116,30 +144,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Insira os detalhes na tabela Roupas, começando na célula à direita. A próxima instrução está na célula A18.</t>
-  </si>
-  <si>
-    <t>Gerência de Desenvolvimento</t>
-  </si>
-  <si>
-    <t>Gerência Operacional</t>
-  </si>
-  <si>
-    <t>Supervisores de Planejamento (2)²</t>
-  </si>
-  <si>
-    <t>Time de Planejamento (8)</t>
-  </si>
-  <si>
-    <t>Supervisor de Desenvolvimento</t>
-  </si>
-  <si>
-    <t>Time de Desenvolvimento (7)</t>
-  </si>
-  <si>
-    <t>Supervisor de Operacional (5)</t>
-  </si>
-  <si>
-    <t>Time de Operacional (50)</t>
   </si>
   <si>
     <t>Total de Custo¹</t>
@@ -172,9 +176,6 @@
     <t>Insira na tabela que começa na célula à direita os custos com a Festa, excluindo os custos com Entretenimento e Decoração. A próxima instrução está na célula A31.</t>
   </si>
   <si>
-    <t>Escritório</t>
-  </si>
-  <si>
     <t>Luz</t>
   </si>
   <si>
@@ -187,9 +188,6 @@
     <t>Insumos para o Escritório</t>
   </si>
   <si>
-    <t>Galpão</t>
-  </si>
-  <si>
     <t>Periféricos Escritório / Galpão</t>
   </si>
   <si>
@@ -229,15 +227,9 @@
     <t>Show Room</t>
   </si>
   <si>
-    <t>Comerciais Radio/Televisão</t>
-  </si>
-  <si>
     <t>Brindes Personalizados</t>
   </si>
   <si>
-    <t>Website</t>
-  </si>
-  <si>
     <t>Patrocínios</t>
   </si>
   <si>
@@ -247,12 +239,6 @@
     <t>CFO (Cássio)</t>
   </si>
   <si>
-    <t>A definir (Djeniffer)</t>
-  </si>
-  <si>
-    <t>A definir (Aryon)</t>
-  </si>
-  <si>
     <t>A definir (Maxwell)</t>
   </si>
   <si>
@@ -268,9 +254,6 @@
     <t>Gastos com Veículos</t>
   </si>
   <si>
-    <t>Carro</t>
-  </si>
-  <si>
     <t>Seguro do carro</t>
   </si>
   <si>
@@ -280,7 +263,46 @@
     <t>Seguro patrimonial</t>
   </si>
   <si>
-    <t>uigi</t>
+    <t>Carro (Translado)</t>
+  </si>
+  <si>
+    <t>Galpão / Escritório</t>
+  </si>
+  <si>
+    <t>CCO (Djeniffer)</t>
+  </si>
+  <si>
+    <t>CTO (Aryon)</t>
+  </si>
+  <si>
+    <t>Equipe do Desenvolvimento (3)</t>
+  </si>
+  <si>
+    <t>Equipe Financeiro (2)</t>
+  </si>
+  <si>
+    <t>Equipe Operacional (2)</t>
+  </si>
+  <si>
+    <t>PPR</t>
+  </si>
+  <si>
+    <t>Equipe de Comercial (3)</t>
+  </si>
+  <si>
+    <t>Equipe de Marketing (3)</t>
+  </si>
+  <si>
+    <t>Ganhos com a Venda</t>
+  </si>
+  <si>
+    <t>Estimativa de vendas</t>
+  </si>
+  <si>
+    <t>ganho da empresa 8%</t>
+  </si>
+  <si>
+    <t>Total de Ganho</t>
   </si>
 </sst>
 </file>
@@ -295,7 +317,7 @@
     <numFmt numFmtId="166" formatCode="[$-416]d\-mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Cambria"/>
@@ -546,6 +568,27 @@
       <name val="Cambria"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.5"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="37">
@@ -968,7 +1011,7 @@
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1088,6 +1131,9 @@
     </xf>
     <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1113,10 +1159,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1169,88 +1240,7 @@
     <cellStyle name="Total" xfId="5" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vírgula" xfId="8" builtinId="3" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="46">
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="55">
     <dxf>
       <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1277,10 +1267,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -1301,6 +1287,148 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1595,15 +1723,15 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Orçamento de casamento" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Orçamento de casamento" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="45"/>
-      <tableStyleElement type="headerRow" dxfId="44"/>
-      <tableStyleElement type="totalRow" dxfId="43"/>
-      <tableStyleElement type="lastColumn" dxfId="42"/>
+      <tableStyleElement type="wholeTable" dxfId="54"/>
+      <tableStyleElement type="headerRow" dxfId="53"/>
+      <tableStyleElement type="totalRow" dxfId="52"/>
+      <tableStyleElement type="lastColumn" dxfId="51"/>
     </tableStyle>
     <tableStyle name="Resumo do orçamento de casamento" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="41"/>
-      <tableStyleElement type="headerRow" dxfId="40"/>
-      <tableStyleElement type="totalRow" dxfId="39"/>
+      <tableStyleElement type="wholeTable" dxfId="50"/>
+      <tableStyleElement type="headerRow" dxfId="49"/>
+      <tableStyleElement type="totalRow" dxfId="48"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2561,14 +2689,20 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="CASSIO RODRIGUES BRAGA" id="{97E87E9D-ECF8-4E35-9889-A515C6A71A37}" userId="S::cassio.rbraga@senacsp.edu.br::70b205e4-ccb9-441b-9d8f-e0b6bc17dbf1" providerId="AD"/>
+</personList>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ResumoDoOrçamento" displayName="ResumoDoOrçamento" ref="C6:F11" totalsRowCount="1" headerRowDxfId="38" totalsRowCellStyle="Total">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ResumoDoOrçamento" displayName="ResumoDoOrçamento" ref="C6:F11" totalsRowCount="1" headerRowDxfId="47" totalsRowCellStyle="Total">
   <autoFilter ref="C6:F10" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CATEGORIA" totalsRowLabel="Total de despesas" totalsRowDxfId="37" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ESTIMADO" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CATEGORIA" totalsRowLabel="Total de despesas" totalsRowDxfId="46" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ESTIMADO" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>ResumoDoOrçamento[[#This Row],[ESTIMADO]]-ResumoDoOrçamento[[#This Row],[REAL]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2582,18 +2716,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Roupas" displayName="Roupas" ref="B2:E17" totalsRowCount="1">
-  <autoFilter ref="B2:E16" xr:uid="{00000000-0009-0000-0100-00000C000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Roupas" displayName="Roupas" ref="B2:E15" totalsRowCount="1">
+  <autoFilter ref="B2:E14" xr:uid="{00000000-0009-0000-0100-00000C000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Custo¹" dataDxfId="30" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ESTIMADO ANUAL" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Custo¹" dataDxfId="39" totalsRowDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ESTIMADO ANUAL" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="13">
       <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C3-'Funcionários-Local-Extras-Marke'!$D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2607,19 +2741,19 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Festa" displayName="Festa" ref="B22:E31" totalsRowCount="1">
-  <autoFilter ref="B22:E30" xr:uid="{00000000-0009-0000-0100-00000D000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Festa" displayName="Festa" ref="B20:E28" totalsRowCount="1">
+  <autoFilter ref="B20:E27" xr:uid="{00000000-0009-0000-0100-00000D000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Custo" dataDxfId="26" totalsRowDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ESTIMADO ANUAL" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="0">
-      <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C23-'Funcionários-Local-Extras-Marke'!$D23</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Custo" dataDxfId="35" totalsRowDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ESTIMADO ANUAL" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="21">
+      <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C21-'Funcionários-Local-Extras-Marke'!$D21</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Orçamento de casamento" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2632,19 +2766,19 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Música" displayName="Música" ref="B35:E39" totalsRowCount="1" totalsRowDxfId="22">
-  <autoFilter ref="B35:E38" xr:uid="{00000000-0009-0000-0100-00000E000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Música" displayName="Música" ref="B32:E36" totalsRowCount="1" totalsRowDxfId="31">
+  <autoFilter ref="B32:E35" xr:uid="{00000000-0009-0000-0100-00000E000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Gastos Extras" dataDxfId="21" totalsRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="ESTIMADO" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="4">
-      <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C36-'Funcionários-Local-Extras-Marke'!$D36</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Gastos Extras" dataDxfId="30" totalsRowDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="ESTIMADO" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="17">
+      <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C33-'Funcionários-Local-Extras-Marke'!$D33</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Orçamento de casamento" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2657,19 +2791,41 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Impressão" displayName="Impressão" ref="B42:E52" totalsRowCount="1" totalsRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Impressão" displayName="Impressão" ref="B39:E47" totalsRowCount="1" totalsRowDxfId="26">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Marketing" totalsRowDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="ESTIMADO" totalsRowFunction="sum" totalsRowDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" totalsRowDxfId="12">
-      <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C43-'Funcionários-Local-Extras-Marke'!$D43</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Marketing" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="ESTIMADO" totalsRowFunction="sum" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" totalsRowDxfId="4">
+      <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C40-'Funcionários-Local-Extras-Marke'!$D40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Orçamento de casamento" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
       <x14:table altTextSummary="Insira o item da Categoria e os Custos reais e estimados com Impressão e Gráfica nesta tabela. Os Valores Acima ou Abaixo e o Total são calculados automaticamente, e o ícone é atualizado"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{542CD9DA-BE67-4476-B3ED-94AAA93D6D50}" name="Música2" displayName="Música2" ref="B51:E54" totalsRowCount="1" totalsRowDxfId="12">
+  <autoFilter ref="B51:E53" xr:uid="{542CD9DA-BE67-4476-B3ED-94AAA93D6D50}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F828AF69-2C3D-4F7C-BAEB-AE441072E02C}" name="CATEGORIA" totalsRowLabel="Total de Ganho" dataDxfId="11" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{49218F16-1EAB-4FE3-85CD-202EE002DE31}" name="ESTIMADO" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="2">
+      <totalsRowFormula>C53</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{B924C15A-4FC9-4943-9D4C-3A0A2C03CA14}" name="REAL" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{6A452F63-ECF6-47C3-9821-65724FEBC5DB}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="0">
+      <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C52-'Funcionários-Local-Extras-Marke'!$D52</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="Orçamento de casamento" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Insira o item da Categoria e os Custos reais e estimados com Música e Entretenimento nesta tabela. Os Valores Acima ou Abaixo e o Total são calculados automaticamente, e o ícone é atualizado"/>
     </ext>
   </extLst>
 </table>
@@ -2936,6 +3092,18 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B14" dT="2022-04-01T23:19:19.92" personId="{97E87E9D-ECF8-4E35-9889-A515C6A71A37}" id="{423E396C-BC7A-4789-AFE6-1C43DEF629DD}">
+    <text>é um instrumento que integra capital e trabalho, tendo como principal objetivo o aumento da produtividade de forma que, nesta situação, a remuneração dos funcionários varia conforme o alcance das metas da organização.</text>
+  </threadedComment>
+  <threadedComment ref="C34" dT="2022-04-01T23:22:43.00" personId="{97E87E9D-ECF8-4E35-9889-A515C6A71A37}" id="{4F5185A9-8010-4F61-810B-0777DA2DE50F}">
+    <text>Nesse custo, foi feito um contrato com as montadoras para arcar com 50% do custo.
+O valor que está demonstrado é a metade que a empresa tem que arcar</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
@@ -2944,7 +3112,7 @@
   </sheetPr>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="50" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -2989,30 +3157,30 @@
         <v>3</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3042,7 +3210,7 @@
       </c>
       <c r="D7" s="49">
         <f>Total_de_Roupas_est</f>
-        <v>750000</v>
+        <v>1218000</v>
       </c>
       <c r="E7" s="49">
         <f>Total_de_Roupas_real</f>
@@ -3050,7 +3218,7 @@
       </c>
       <c r="F7" s="45">
         <f>ResumoDoOrçamento[[#This Row],[ESTIMADO]]-ResumoDoOrçamento[[#This Row],[REAL]]</f>
-        <v>750000</v>
+        <v>1218000</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -3061,7 +3229,7 @@
       </c>
       <c r="D8" s="49">
         <f>Total_da_Festa_est</f>
-        <v>87900</v>
+        <v>67900</v>
       </c>
       <c r="E8" s="49">
         <f>Total_da_Festa_real</f>
@@ -3069,7 +3237,7 @@
       </c>
       <c r="F8" s="45">
         <f>ResumoDoOrçamento[[#This Row],[ESTIMADO]]-ResumoDoOrçamento[[#This Row],[REAL]]</f>
-        <v>87900</v>
+        <v>67900</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -3080,7 +3248,7 @@
       </c>
       <c r="D9" s="49">
         <f>Total_de_Música_entretenimento_est</f>
-        <v>0</v>
+        <v>312500</v>
       </c>
       <c r="E9" s="49">
         <f>Total_de_Música_entretenimento_real</f>
@@ -3088,7 +3256,7 @@
       </c>
       <c r="F9" s="45">
         <f>ResumoDoOrçamento[[#This Row],[ESTIMADO]]-ResumoDoOrçamento[[#This Row],[REAL]]</f>
-        <v>0</v>
+        <v>312500</v>
       </c>
       <c r="G9" s="3"/>
     </row>
@@ -3099,7 +3267,7 @@
       </c>
       <c r="D10" s="49">
         <f>Total_de_Impressão_gráfica_est</f>
-        <v>0</v>
+        <v>120800</v>
       </c>
       <c r="E10" s="49">
         <f>Total_de_Impressão_gráfica_real</f>
@@ -3107,7 +3275,7 @@
       </c>
       <c r="F10" s="45">
         <f>ResumoDoOrçamento[[#This Row],[ESTIMADO]]-ResumoDoOrçamento[[#This Row],[REAL]]</f>
-        <v>0</v>
+        <v>120800</v>
       </c>
       <c r="G10" s="3"/>
     </row>
@@ -3118,7 +3286,7 @@
       </c>
       <c r="D11" s="50">
         <f>SUBTOTAL(109,ResumoDoOrçamento[ESTIMADO])</f>
-        <v>837900</v>
+        <v>1719200</v>
       </c>
       <c r="E11" s="51">
         <f>SUBTOTAL(109,ResumoDoOrçamento[REAL])</f>
@@ -3126,7 +3294,7 @@
       </c>
       <c r="F11" s="47">
         <f>SUBTOTAL(109,ResumoDoOrçamento[ACIMA/ABAIXO])</f>
-        <v>837900</v>
+        <v>1719200</v>
       </c>
       <c r="G11" s="20"/>
     </row>
@@ -3143,204 +3311,204 @@
         <v>15</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
       <c r="G21" s="21"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3402,15 +3570,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3419,6 +3587,10 @@
     <col min="2" max="2" width="29.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="4.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3442,13 +3614,13 @@
       <c r="B2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="72" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
@@ -3457,7 +3629,7 @@
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" s="31">
         <v>120000</v>
@@ -3472,7 +3644,7 @@
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="30" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C4" s="31">
         <v>120000</v>
@@ -3487,7 +3659,7 @@
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="30" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C5" s="31">
         <v>120000</v>
@@ -3502,7 +3674,7 @@
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="31">
         <v>120000</v>
@@ -3517,7 +3689,7 @@
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="30" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C7" s="31">
         <v>120000</v>
@@ -3531,8 +3703,8 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="30" t="s">
-        <v>62</v>
+      <c r="B8" s="70" t="s">
+        <v>48</v>
       </c>
       <c r="C8" s="31">
         <v>150000</v>
@@ -3547,82 +3719,85 @@
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="30" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C9" s="31">
-        <v>0</v>
+        <v>108000</v>
       </c>
       <c r="D9" s="31">
         <v>0</v>
       </c>
       <c r="E9" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C9-'Funcionários-Local-Extras-Marke'!$D9</f>
-        <v>0</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="30" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="C10" s="31">
-        <v>0</v>
+        <v>108000</v>
       </c>
       <c r="D10" s="31">
         <v>0</v>
       </c>
       <c r="E10" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C10-'Funcionários-Local-Extras-Marke'!$D10</f>
-        <v>0</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="30" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C11" s="31">
-        <v>0</v>
+        <v>108000</v>
       </c>
       <c r="D11" s="31">
         <v>0</v>
       </c>
       <c r="E11" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C11-'Funcionários-Local-Extras-Marke'!$D11</f>
-        <v>0</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
       <c r="B12" s="30" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C12" s="31">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="D12" s="31">
         <v>0</v>
       </c>
       <c r="E12" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C12-'Funcionários-Local-Extras-Marke'!$D12</f>
-        <v>0</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
       <c r="B13" s="30" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C13" s="31">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="D13" s="31">
         <v>0</v>
       </c>
       <c r="E13" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C13-'Funcionários-Local-Extras-Marke'!$D13</f>
-        <v>0</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="30" t="s">
-        <v>25</v>
+      <c r="A14" s="16"/>
+      <c r="B14" s="70" t="s">
+        <v>62</v>
       </c>
       <c r="C14" s="31">
         <v>0</v>
@@ -3636,169 +3811,168 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="31">
-        <v>0</v>
-      </c>
-      <c r="D15" s="31">
-        <v>0</v>
-      </c>
-      <c r="E15" s="32">
-        <f>'Funcionários-Local-Extras-Marke'!$C15-'Funcionários-Local-Extras-Marke'!$D15</f>
-        <v>0</v>
+      <c r="A15" s="15"/>
+      <c r="B15" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="33">
+        <f>SUBTOTAL(109,Roupas[ESTIMADO ANUAL])</f>
+        <v>1218000</v>
+      </c>
+      <c r="D15" s="33">
+        <f>SUBTOTAL(109,Roupas[REAL])</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="34">
+        <f>SUBTOTAL(109,Roupas[ACIMA/ABAIXO])</f>
+        <v>1218000</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="31">
-        <v>0</v>
-      </c>
-      <c r="D16" s="31">
-        <v>0</v>
-      </c>
-      <c r="E16" s="32">
-        <f>'Funcionários-Local-Extras-Marke'!$C16-'Funcionários-Local-Extras-Marke'!$D16</f>
-        <v>0</v>
-      </c>
+      <c r="A16" s="15"/>
+      <c r="B16" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
-      <c r="B17" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="33">
-        <f>SUBTOTAL(109,Roupas[ESTIMADO ANUAL])</f>
-        <v>750000</v>
-      </c>
-      <c r="D17" s="33">
-        <f>SUBTOTAL(109,Roupas[REAL])</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="34">
-        <f>SUBTOTAL(109,Roupas[ACIMA/ABAIXO])</f>
-        <v>750000</v>
-      </c>
+      <c r="B17" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
-      <c r="B18" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="59"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="41"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
+      <c r="A19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="36"/>
+      <c r="E19" s="29"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
+      <c r="A20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="36"/>
-      <c r="E21" s="29"/>
+      <c r="B21" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="31">
+        <v>3000</v>
+      </c>
+      <c r="D21" s="31">
+        <v>0</v>
+      </c>
+      <c r="E21" s="32">
+        <f>'Funcionários-Local-Extras-Marke'!$C21-'Funcionários-Local-Extras-Marke'!$D21</f>
+        <v>3000</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>9</v>
+      <c r="B22" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="31">
+        <v>1500</v>
+      </c>
+      <c r="D22" s="31">
+        <v>0</v>
+      </c>
+      <c r="E22" s="32">
+        <f>'Funcionários-Local-Extras-Marke'!$C22-'Funcionários-Local-Extras-Marke'!$D22</f>
+        <v>1500</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="30" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C23" s="31">
-        <v>30000</v>
+        <v>2400</v>
       </c>
       <c r="D23" s="31">
         <v>0</v>
       </c>
       <c r="E23" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C23-'Funcionários-Local-Extras-Marke'!$D23</f>
-        <v>30000</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="30" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C24" s="31">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="D24" s="31">
         <v>0</v>
       </c>
       <c r="E24" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C24-'Funcionários-Local-Extras-Marke'!$D24</f>
-        <v>3000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="30" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C25" s="31">
-        <v>1500</v>
+        <v>60000</v>
       </c>
       <c r="D25" s="31">
         <v>0</v>
       </c>
       <c r="E25" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C25-'Funcionários-Local-Extras-Marke'!$D25</f>
-        <v>1500</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="30" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C26" s="31">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="D26" s="31">
         <v>0</v>
       </c>
       <c r="E26" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C26-'Funcionários-Local-Extras-Marke'!$D26</f>
-        <v>2400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="30" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C27" s="31">
         <v>500</v>
@@ -3812,362 +3986,388 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="30" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="33">
+        <f>SUBTOTAL(109,Festa[ESTIMADO ANUAL])</f>
+        <v>67900</v>
+      </c>
+      <c r="D28" s="33">
+        <f>SUBTOTAL(109,Festa[REAL])</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="34">
+        <f>SUBTOTAL(109,Festa[ACIMA/ABAIXO])</f>
+        <v>67900</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="61"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="36"/>
+      <c r="E31" s="29"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="31">
+        <v>0</v>
+      </c>
+      <c r="D33" s="31">
+        <v>0</v>
+      </c>
+      <c r="E33" s="32">
+        <f>'Funcionários-Local-Extras-Marke'!$C33-'Funcionários-Local-Extras-Marke'!$D33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="67">
+        <f>625000/2</f>
+        <v>312500</v>
+      </c>
+      <c r="D34" s="31">
+        <v>0</v>
+      </c>
+      <c r="E34" s="32">
+        <f>'Funcionários-Local-Extras-Marke'!$C34-'Funcionários-Local-Extras-Marke'!$D34</f>
+        <v>312500</v>
+      </c>
+      <c r="G34" s="68">
+        <v>130000</v>
+      </c>
+      <c r="H34" s="68">
+        <v>45000</v>
+      </c>
+      <c r="I34" s="68">
+        <v>440000</v>
+      </c>
+      <c r="J34" s="69">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="31">
+        <v>0</v>
+      </c>
+      <c r="D35" s="31">
+        <v>0</v>
+      </c>
+      <c r="E35" s="32">
+        <f>'Funcionários-Local-Extras-Marke'!$C35-'Funcionários-Local-Extras-Marke'!$D35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="33">
+        <f>SUBTOTAL(109,Música[ESTIMADO])</f>
+        <v>312500</v>
+      </c>
+      <c r="D36" s="33">
+        <f>SUBTOTAL(109,Música[REAL])</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="34">
+        <f>SUBTOTAL(109,Música[ACIMA/ABAIXO])</f>
+        <v>312500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="64"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="66"/>
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="36"/>
+      <c r="E38" s="29"/>
+    </row>
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="67">
+        <v>5000</v>
+      </c>
+      <c r="D40" s="31">
+        <v>0</v>
+      </c>
+      <c r="E40" s="32">
+        <f>'Funcionários-Local-Extras-Marke'!$C40-'Funcionários-Local-Extras-Marke'!$D40</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="31">
-        <v>50000</v>
-      </c>
-      <c r="D28" s="31">
-        <v>0</v>
-      </c>
-      <c r="E28" s="32">
-        <f>'Funcionários-Local-Extras-Marke'!$C28-'Funcionários-Local-Extras-Marke'!$D28</f>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="31">
-        <v>0</v>
-      </c>
-      <c r="E29" s="32" t="e">
-        <f>'Funcionários-Local-Extras-Marke'!$C29-'Funcionários-Local-Extras-Marke'!$D29</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="30" t="s">
+      <c r="C41" s="31">
+        <v>5000</v>
+      </c>
+      <c r="D41" s="31">
+        <v>0</v>
+      </c>
+      <c r="E41" s="32">
+        <f>'Funcionários-Local-Extras-Marke'!$C41-'Funcionários-Local-Extras-Marke'!$D41</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="31">
-        <v>500</v>
-      </c>
-      <c r="D30" s="31">
-        <v>0</v>
-      </c>
-      <c r="E30" s="32">
-        <f>'Funcionários-Local-Extras-Marke'!$C30-'Funcionários-Local-Extras-Marke'!$D30</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
-      <c r="B31" s="28" t="s">
+      <c r="C42" s="31">
+        <v>5000</v>
+      </c>
+      <c r="D42" s="31">
+        <v>0</v>
+      </c>
+      <c r="E42" s="32">
+        <f>'Funcionários-Local-Extras-Marke'!$C42-'Funcionários-Local-Extras-Marke'!$D42</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="33">
-        <f>SUBTOTAL(109,Festa[ESTIMADO ANUAL])</f>
-        <v>87900</v>
-      </c>
-      <c r="D31" s="33">
-        <f>SUBTOTAL(109,Festa[REAL])</f>
-        <v>0</v>
-      </c>
-      <c r="E31" s="34" t="e">
-        <f>SUBTOTAL(109,Festa[ACIMA/ABAIXO])</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="56"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="62"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="36"/>
-      <c r="E34" s="29"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
-      <c r="B36" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="31">
-        <v>0</v>
-      </c>
-      <c r="D36" s="31">
-        <v>0</v>
-      </c>
-      <c r="E36" s="32">
-        <f>'Funcionários-Local-Extras-Marke'!$C36-'Funcionários-Local-Extras-Marke'!$D36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="31">
-        <v>0</v>
-      </c>
-      <c r="D37" s="31">
-        <v>0</v>
-      </c>
-      <c r="E37" s="32">
-        <f>'Funcionários-Local-Extras-Marke'!$C37-'Funcionários-Local-Extras-Marke'!$D37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="32">
-        <f>'Funcionários-Local-Extras-Marke'!$C38-'Funcionários-Local-Extras-Marke'!$D38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="33">
-        <f>SUBTOTAL(109,Música[ESTIMADO])</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="33">
-        <f>SUBTOTAL(109,Música[REAL])</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="34">
-        <f>SUBTOTAL(109,Música[ACIMA/ABAIXO])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="63"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="65"/>
-    </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="36"/>
-      <c r="E41" s="29"/>
-    </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="67">
-        <v>0</v>
+      <c r="C43" s="31">
+        <v>800</v>
       </c>
       <c r="D43" s="31">
         <v>0</v>
       </c>
       <c r="E43" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C43-'Funcionários-Local-Extras-Marke'!$D43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="66" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="31">
-        <v>0</v>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="67">
+        <v>30000</v>
       </c>
       <c r="D44" s="31">
         <v>0</v>
       </c>
       <c r="E44" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C44-'Funcionários-Local-Extras-Marke'!$D44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="31">
-        <v>0</v>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15"/>
+      <c r="B45" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="67">
+        <v>25000</v>
       </c>
       <c r="D45" s="31">
         <v>0</v>
       </c>
       <c r="E45" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C45-'Funcionários-Local-Extras-Marke'!$D45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="30" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C46" s="31">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="D46" s="31">
         <v>0</v>
       </c>
       <c r="E46" s="32">
         <f>'Funcionários-Local-Extras-Marke'!$C46-'Funcionários-Local-Extras-Marke'!$D46</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="31">
-        <v>0</v>
-      </c>
-      <c r="D47" s="31">
-        <v>0</v>
-      </c>
-      <c r="E47" s="32">
-        <f>'Funcionários-Local-Extras-Marke'!$C47-'Funcionários-Local-Extras-Marke'!$D47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="14"/>
-      <c r="B48" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" s="31">
-        <v>0</v>
-      </c>
-      <c r="D48" s="31">
-        <v>0</v>
-      </c>
-      <c r="E48" s="32">
-        <f>'Funcionários-Local-Extras-Marke'!$C48-'Funcionários-Local-Extras-Marke'!$D48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="15"/>
-      <c r="B49" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="31">
-        <v>0</v>
-      </c>
-      <c r="D49" s="31">
-        <v>0</v>
-      </c>
-      <c r="E49" s="32">
-        <f>'Funcionários-Local-Extras-Marke'!$C49-'Funcionários-Local-Extras-Marke'!$D49</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="31">
-        <v>0</v>
-      </c>
-      <c r="D50" s="31">
-        <v>0</v>
-      </c>
-      <c r="E50" s="32">
-        <f>'Funcionários-Local-Extras-Marke'!$C50-'Funcionários-Local-Extras-Marke'!$D50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="31">
-        <v>0</v>
-      </c>
-      <c r="D51" s="31">
-        <v>0</v>
-      </c>
-      <c r="E51" s="32">
-        <f>'Funcionários-Local-Extras-Marke'!$C51-'Funcionários-Local-Extras-Marke'!$D51</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="38">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" s="73">
         <f>SUBTOTAL(109,Impressão[ESTIMADO])</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="38">
+        <v>120800</v>
+      </c>
+      <c r="D47" s="73">
         <f>SUBTOTAL(109,Impressão[REAL])</f>
         <v>0</v>
       </c>
-      <c r="E52" s="39">
+      <c r="E47" s="34">
         <f>SUBTOTAL(109,Impressão[ACIMA/ABAIXO])</f>
-        <v>0</v>
-      </c>
+        <v>120800</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="80">
+        <f>Impressão[[#Totals],[ESTIMADO]]+Música[[#Totals],[ESTIMADO]]+Festa[[#Totals],[ESTIMADO ANUAL]]+Roupas[[#Totals],[ESTIMADO ANUAL]]</f>
+        <v>1719200</v>
+      </c>
+      <c r="D48" s="38"/>
+      <c r="E48" s="39"/>
+    </row>
+    <row r="49" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="75"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="77"/>
+    </row>
+    <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="78">
+        <v>30000000</v>
+      </c>
+      <c r="D52" s="78">
+        <v>0</v>
+      </c>
+      <c r="E52" s="32">
+        <f>'Funcionários-Local-Extras-Marke'!$C52-'Funcionários-Local-Extras-Marke'!$D52</f>
+        <v>30000000</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="81">
+        <f>C52*8%</f>
+        <v>2400000</v>
+      </c>
+      <c r="D53" s="78">
+        <v>0</v>
+      </c>
+      <c r="E53" s="32">
+        <f>'Funcionários-Local-Extras-Marke'!$C53-'Funcionários-Local-Extras-Marke'!$D53</f>
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="38">
+        <f>C53</f>
+        <v>2400000</v>
+      </c>
+      <c r="D54" s="38">
+        <f>SUBTOTAL(109,Música2[REAL])</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="39">
+        <f>SUBTOTAL(109,Música2[ACIMA/ABAIXO])</f>
+        <v>32400000</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B17:E17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4175,17 +4375,19 @@
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <tableParts count="4">
-    <tablePart r:id="rId2"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="5">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="158" id="{55199E56-DD9C-4A4F-BED9-16F56CCFDA0D}">
+          <x14:cfRule type="iconSet" priority="162" id="{55199E56-DD9C-4A4F-BED9-16F56CCFDA0D}">
             <x14:iconSet iconSet="3Triangles" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4201,7 +4403,26 @@
               <x14:cfIcon iconSet="3ArrowsGray" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E43:E51 E36:E38 E23:E30 E3:E16</xm:sqref>
+          <xm:sqref>E40:E46 E33:E35 E21:E27 E3:E14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="163" id="{FAF49BCC-35D8-4591-BE60-BF0505A8DFBB}">
+            <x14:iconSet iconSet="3Triangles" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3ArrowsGray" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3ArrowsGray" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E52:E53</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4210,21 +4431,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100438D081558299543A3D90C741E9D9A9A" ma:contentTypeVersion="8" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="6307e9d03a483d8aaaad55333a2d33a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a4d4739c-b3d2-4350-8f47-3b8a709ccb2d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ddc1d36326b7f09edaeafea200ec074" ns2:_="">
     <xsd:import namespace="a4d4739c-b3d2-4350-8f47-3b8a709ccb2d"/>
@@ -4394,24 +4600,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{953F9F67-1E60-41F1-8D0A-2C9144BB5791}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C15B775D-9D4C-4008-98F9-E820ECDFE507}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97900851-B275-4B05-8F5D-F815934E192B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4427,4 +4631,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C15B775D-9D4C-4008-98F9-E820ECDFE507}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{953F9F67-1E60-41F1-8D0A-2C9144BB5791}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Custos para Edição.xlsx
+++ b/Custos para Edição.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Publica\TI0320\Cassio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376D7760-00CA-4850-A8C9-9BEAC1E0241B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E49AD05-9291-481D-96C1-DB7E06FE2D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -570,12 +570,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11.5"/>
       <color theme="3"/>
@@ -590,8 +584,15 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -795,6 +796,18 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF305353"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9A9A9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -1011,7 +1024,7 @@
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1082,7 +1095,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1094,14 +1106,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1134,6 +1144,30 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1159,37 +1193,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="167" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="38" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="38" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="20% - Ênfase1" xfId="6" builtinId="30" customBuiltin="1"/>
@@ -1240,9 +1260,104 @@
     <cellStyle name="Total" xfId="5" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vírgula" xfId="8" builtinId="3" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="62">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF305353"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF305353"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF305353"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF305353"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="medium">
@@ -1256,6 +1371,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -1267,6 +1388,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -1277,6 +1404,12 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -1289,7 +1422,22 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="medium">
@@ -1301,23 +1449,29 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -1328,25 +1482,22 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="medium">
@@ -1358,11 +1509,29 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -1373,7 +1542,21 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="medium">
@@ -1385,11 +1568,29 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -1400,7 +1601,41 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF305353"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="medium">
@@ -1412,11 +1647,29 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    </dxf>
-    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -1431,9 +1684,6 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1442,14 +1692,26 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
@@ -1723,15 +1985,15 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Orçamento de casamento" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Orçamento de casamento" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="54"/>
-      <tableStyleElement type="headerRow" dxfId="53"/>
-      <tableStyleElement type="totalRow" dxfId="52"/>
-      <tableStyleElement type="lastColumn" dxfId="51"/>
+      <tableStyleElement type="wholeTable" dxfId="61"/>
+      <tableStyleElement type="headerRow" dxfId="60"/>
+      <tableStyleElement type="totalRow" dxfId="59"/>
+      <tableStyleElement type="lastColumn" dxfId="58"/>
     </tableStyle>
     <tableStyle name="Resumo do orçamento de casamento" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="50"/>
-      <tableStyleElement type="headerRow" dxfId="49"/>
-      <tableStyleElement type="totalRow" dxfId="48"/>
+      <tableStyleElement type="wholeTable" dxfId="57"/>
+      <tableStyleElement type="headerRow" dxfId="56"/>
+      <tableStyleElement type="totalRow" dxfId="55"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1801,6 +2063,10 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF305353"/>
+      <color rgb="FFA9A9A9"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2696,13 +2962,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ResumoDoOrçamento" displayName="ResumoDoOrçamento" ref="C6:F11" totalsRowCount="1" headerRowDxfId="47" totalsRowCellStyle="Total">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ResumoDoOrçamento" displayName="ResumoDoOrçamento" ref="C6:F11" totalsRowCount="1" headerRowDxfId="54" totalsRowCellStyle="Total">
   <autoFilter ref="C6:F10" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CATEGORIA" totalsRowLabel="Total de despesas" totalsRowDxfId="46" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ESTIMADO" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CATEGORIA" totalsRowLabel="Total de despesas" totalsRowDxfId="53" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ESTIMADO" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="47">
       <calculatedColumnFormula>ResumoDoOrçamento[[#This Row],[ESTIMADO]]-ResumoDoOrçamento[[#This Row],[REAL]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2716,7 +2982,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Roupas" displayName="Roupas" ref="B2:E15" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Roupas" displayName="Roupas" ref="B2:E15" totalsRowCount="1" headerRowDxfId="24" totalsRowDxfId="25">
   <autoFilter ref="B2:E14" xr:uid="{00000000-0009-0000-0100-00000C000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2724,10 +2990,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Custo¹" dataDxfId="39" totalsRowDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ESTIMADO ANUAL" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="13">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Custo¹" dataDxfId="46" totalsRowDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ESTIMADO ANUAL" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="26">
       <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C3-'Funcionários-Local-Extras-Marke'!$D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2741,7 +3007,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Festa" displayName="Festa" ref="B20:E28" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Festa" displayName="Festa" ref="B20:E28" totalsRowCount="1" headerRowDxfId="3" totalsRowDxfId="19">
   <autoFilter ref="B20:E27" xr:uid="{00000000-0009-0000-0100-00000D000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2749,10 +3015,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Custo" dataDxfId="35" totalsRowDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ESTIMADO ANUAL" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Custo" dataDxfId="42" totalsRowDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ESTIMADO ANUAL" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="20">
       <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C21-'Funcionários-Local-Extras-Marke'!$D21</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2766,7 +3032,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Música" displayName="Música" ref="B32:E36" totalsRowCount="1" totalsRowDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Música" displayName="Música" ref="B32:E36" totalsRowCount="1" headerRowDxfId="2" totalsRowDxfId="14">
   <autoFilter ref="B32:E35" xr:uid="{00000000-0009-0000-0100-00000E000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -2774,10 +3040,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Gastos Extras" dataDxfId="30" totalsRowDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="ESTIMADO" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="17">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Gastos Extras" dataDxfId="38" totalsRowDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="ESTIMADO" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="15">
       <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C33-'Funcionários-Local-Extras-Marke'!$D33</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2791,12 +3057,12 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Impressão" displayName="Impressão" ref="B39:E47" totalsRowCount="1" totalsRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Impressão" displayName="Impressão" ref="B39:E47" totalsRowCount="1" headerRowDxfId="1" totalsRowDxfId="9">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Marketing" totalsRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="ESTIMADO" totalsRowFunction="sum" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="25" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" totalsRowDxfId="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Marketing" totalsRowDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="ESTIMADO" totalsRowFunction="sum" totalsRowDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" totalsRowDxfId="10">
       <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C40-'Funcionários-Local-Extras-Marke'!$D40</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2810,15 +3076,15 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{542CD9DA-BE67-4476-B3ED-94AAA93D6D50}" name="Música2" displayName="Música2" ref="B51:E54" totalsRowCount="1" totalsRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{542CD9DA-BE67-4476-B3ED-94AAA93D6D50}" name="Música2" displayName="Música2" ref="B51:E54" totalsRowCount="1" headerRowDxfId="0" totalsRowDxfId="4">
   <autoFilter ref="B51:E53" xr:uid="{542CD9DA-BE67-4476-B3ED-94AAA93D6D50}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F828AF69-2C3D-4F7C-BAEB-AE441072E02C}" name="CATEGORIA" totalsRowLabel="Total de Ganho" dataDxfId="11" totalsRowDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{49218F16-1EAB-4FE3-85CD-202EE002DE31}" name="ESTIMADO" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="2">
+    <tableColumn id="1" xr3:uid="{F828AF69-2C3D-4F7C-BAEB-AE441072E02C}" name="CATEGORIA" totalsRowLabel="Total de Ganho" dataDxfId="33" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{49218F16-1EAB-4FE3-85CD-202EE002DE31}" name="ESTIMADO" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="7">
       <totalsRowFormula>C53</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B924C15A-4FC9-4943-9D4C-3A0A2C03CA14}" name="REAL" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{6A452F63-ECF6-47C3-9821-65724FEBC5DB}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="0">
+    <tableColumn id="3" xr3:uid="{B924C15A-4FC9-4943-9D4C-3A0A2C03CA14}" name="REAL" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{6A452F63-ECF6-47C3-9821-65724FEBC5DB}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="5">
       <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C52-'Funcionários-Local-Extras-Marke'!$D52</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3157,30 +3423,30 @@
         <v>3</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3188,16 +3454,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="40" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="3"/>
@@ -3205,18 +3471,18 @@
     <row r="7" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="46">
         <f>Total_de_Roupas_est</f>
         <v>1218000</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="46">
         <f>Total_de_Roupas_real</f>
         <v>0</v>
       </c>
-      <c r="F7" s="45">
+      <c r="F7" s="42">
         <f>ResumoDoOrçamento[[#This Row],[ESTIMADO]]-ResumoDoOrçamento[[#This Row],[REAL]]</f>
         <v>1218000</v>
       </c>
@@ -3224,18 +3490,18 @@
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="46">
         <f>Total_da_Festa_est</f>
         <v>67900</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="46">
         <f>Total_da_Festa_real</f>
         <v>0</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="42">
         <f>ResumoDoOrçamento[[#This Row],[ESTIMADO]]-ResumoDoOrçamento[[#This Row],[REAL]]</f>
         <v>67900</v>
       </c>
@@ -3243,18 +3509,18 @@
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="46">
         <f>Total_de_Música_entretenimento_est</f>
         <v>312500</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="46">
         <f>Total_de_Música_entretenimento_real</f>
         <v>0</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="42">
         <f>ResumoDoOrçamento[[#This Row],[ESTIMADO]]-ResumoDoOrçamento[[#This Row],[REAL]]</f>
         <v>312500</v>
       </c>
@@ -3262,18 +3528,18 @@
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="46">
         <f>Total_de_Impressão_gráfica_est</f>
         <v>120800</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="46">
         <f>Total_de_Impressão_gráfica_real</f>
         <v>0</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="42">
         <f>ResumoDoOrçamento[[#This Row],[ESTIMADO]]-ResumoDoOrçamento[[#This Row],[REAL]]</f>
         <v>120800</v>
       </c>
@@ -3281,18 +3547,18 @@
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="47">
         <f>SUBTOTAL(109,ResumoDoOrçamento[ESTIMADO])</f>
         <v>1719200</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="48">
         <f>SUBTOTAL(109,ResumoDoOrçamento[REAL])</f>
         <v>0</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="44">
         <f>SUBTOTAL(109,ResumoDoOrçamento[ACIMA/ABAIXO])</f>
         <v>1719200</v>
       </c>
@@ -3311,204 +3577,204 @@
         <v>15</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
       <c r="G21" s="21"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3577,8 +3843,8 @@
   </sheetPr>
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3611,16 +3877,16 @@
       <c r="A2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="81" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
@@ -3628,738 +3894,738 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="30">
         <v>120000</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="30">
         <v>0</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C3-'Funcionários-Local-Extras-Marke'!$D3</f>
         <v>120000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="30">
         <v>120000</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="30">
         <v>0</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C4-'Funcionários-Local-Extras-Marke'!$D4</f>
         <v>120000</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="30">
         <v>120000</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="30">
         <v>0</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C5-'Funcionários-Local-Extras-Marke'!$D5</f>
         <v>120000</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="30">
         <v>120000</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="30">
         <v>0</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C6-'Funcionários-Local-Extras-Marke'!$D6</f>
         <v>120000</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="30">
         <v>120000</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="30">
         <v>0</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C7-'Funcionários-Local-Extras-Marke'!$D7</f>
         <v>120000</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="30">
         <v>150000</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="30">
         <v>0</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C8-'Funcionários-Local-Extras-Marke'!$D8</f>
         <v>150000</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="30">
         <v>108000</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="30">
         <v>0</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C9-'Funcionários-Local-Extras-Marke'!$D9</f>
         <v>108000</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="30">
         <v>108000</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="30">
         <v>0</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C10-'Funcionários-Local-Extras-Marke'!$D10</f>
         <v>108000</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="30">
         <v>108000</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="30">
         <v>0</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C11-'Funcionários-Local-Extras-Marke'!$D11</f>
         <v>108000</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="30">
         <v>72000</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="30">
         <v>0</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C12-'Funcionários-Local-Extras-Marke'!$D12</f>
         <v>72000</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="30">
         <v>72000</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="30">
         <v>0</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C13-'Funcionários-Local-Extras-Marke'!$D13</f>
         <v>72000</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
-      <c r="B14" s="70" t="s">
+      <c r="B14" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="30">
         <v>0</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="30">
         <v>0</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C14-'Funcionários-Local-Extras-Marke'!$D14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15"/>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="77">
         <f>SUBTOTAL(109,Roupas[ESTIMADO ANUAL])</f>
         <v>1218000</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="77">
         <f>SUBTOTAL(109,Roupas[REAL])</f>
         <v>0</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="78">
         <f>SUBTOTAL(109,Roupas[ACIMA/ABAIXO])</f>
         <v>1218000</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="36"/>
-      <c r="E19" s="29"/>
+      <c r="C19" s="34"/>
+      <c r="E19" s="28"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="87" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="30">
         <v>3000</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="30">
         <v>0</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C21-'Funcionários-Local-Extras-Marke'!$D21</f>
         <v>3000</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="30">
         <v>1500</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="30">
         <v>0</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C22-'Funcionários-Local-Extras-Marke'!$D22</f>
         <v>1500</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="30">
         <v>2400</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="30">
         <v>0</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C23-'Funcionários-Local-Extras-Marke'!$D23</f>
         <v>2400</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="30">
         <v>500</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="30">
         <v>0</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C24-'Funcionários-Local-Extras-Marke'!$D24</f>
         <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="30">
         <v>60000</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="30">
         <v>0</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C25-'Funcionários-Local-Extras-Marke'!$D25</f>
         <v>60000</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="30">
         <v>0</v>
       </c>
-      <c r="D26" s="31">
+      <c r="D26" s="30">
         <v>0</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C26-'Funcionários-Local-Extras-Marke'!$D26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="30">
         <v>500</v>
       </c>
-      <c r="D27" s="31">
+      <c r="D27" s="30">
         <v>0</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C27-'Funcionários-Local-Extras-Marke'!$D27</f>
         <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15"/>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="77">
         <f>SUBTOTAL(109,Festa[ESTIMADO ANUAL])</f>
         <v>67900</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D28" s="77">
         <f>SUBTOTAL(109,Festa[REAL])</f>
         <v>0</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="78">
         <f>SUBTOTAL(109,Festa[ACIMA/ABAIXO])</f>
         <v>67900</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="66"/>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="61"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="63"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="72"/>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="E31" s="29"/>
+      <c r="C31" s="34"/>
+      <c r="E31" s="28"/>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="87" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15"/>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="30">
         <v>0</v>
       </c>
-      <c r="D33" s="31">
+      <c r="D33" s="30">
         <v>0</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C33-'Funcionários-Local-Extras-Marke'!$D33</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="67">
+      <c r="C34" s="50">
         <f>625000/2</f>
         <v>312500</v>
       </c>
-      <c r="D34" s="31">
+      <c r="D34" s="30">
         <v>0</v>
       </c>
-      <c r="E34" s="32">
+      <c r="E34" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C34-'Funcionários-Local-Extras-Marke'!$D34</f>
         <v>312500</v>
       </c>
-      <c r="G34" s="68">
+      <c r="G34" s="51">
         <v>130000</v>
       </c>
-      <c r="H34" s="68">
+      <c r="H34" s="51">
         <v>45000</v>
       </c>
-      <c r="I34" s="68">
+      <c r="I34" s="51">
         <v>440000</v>
       </c>
-      <c r="J34" s="69">
+      <c r="J34" s="52">
         <v>10000</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="31">
+      <c r="C35" s="30">
         <v>0</v>
       </c>
-      <c r="D35" s="31">
+      <c r="D35" s="30">
         <v>0</v>
       </c>
-      <c r="E35" s="32">
+      <c r="E35" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C35-'Funcionários-Local-Extras-Marke'!$D35</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="77">
         <f>SUBTOTAL(109,Música[ESTIMADO])</f>
         <v>312500</v>
       </c>
-      <c r="D36" s="33">
+      <c r="D36" s="77">
         <f>SUBTOTAL(109,Música[REAL])</f>
         <v>0</v>
       </c>
-      <c r="E36" s="34">
+      <c r="E36" s="78">
         <f>SUBTOTAL(109,Música[ACIMA/ABAIXO])</f>
         <v>312500</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="64"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="66"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="75"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="36"/>
-      <c r="E38" s="29"/>
+      <c r="C38" s="34"/>
+      <c r="E38" s="28"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="29" t="s">
+      <c r="E39" s="87" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="67">
+      <c r="C40" s="50">
         <v>5000</v>
       </c>
-      <c r="D40" s="31">
+      <c r="D40" s="30">
         <v>0</v>
       </c>
-      <c r="E40" s="32">
+      <c r="E40" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C40-'Funcionários-Local-Extras-Marke'!$D40</f>
         <v>5000</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="30">
         <v>5000</v>
       </c>
-      <c r="D41" s="31">
+      <c r="D41" s="30">
         <v>0</v>
       </c>
-      <c r="E41" s="32">
+      <c r="E41" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C41-'Funcionários-Local-Extras-Marke'!$D41</f>
         <v>5000</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="31">
+      <c r="C42" s="30">
         <v>5000</v>
       </c>
-      <c r="D42" s="31">
+      <c r="D42" s="30">
         <v>0</v>
       </c>
-      <c r="E42" s="32">
+      <c r="E42" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C42-'Funcionários-Local-Extras-Marke'!$D42</f>
         <v>5000</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="30">
         <v>800</v>
       </c>
-      <c r="D43" s="31">
+      <c r="D43" s="30">
         <v>0</v>
       </c>
-      <c r="E43" s="32">
+      <c r="E43" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C43-'Funcionários-Local-Extras-Marke'!$D43</f>
         <v>800</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="67">
+      <c r="C44" s="50">
         <v>30000</v>
       </c>
-      <c r="D44" s="31">
+      <c r="D44" s="30">
         <v>0</v>
       </c>
-      <c r="E44" s="32">
+      <c r="E44" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C44-'Funcionários-Local-Extras-Marke'!$D44</f>
         <v>30000</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15"/>
-      <c r="B45" s="70" t="s">
+      <c r="B45" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="67">
+      <c r="C45" s="50">
         <v>25000</v>
       </c>
-      <c r="D45" s="31">
+      <c r="D45" s="30">
         <v>0</v>
       </c>
-      <c r="E45" s="32">
+      <c r="E45" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C45-'Funcionários-Local-Extras-Marke'!$D45</f>
         <v>25000</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="31">
+      <c r="C46" s="30">
         <v>50000</v>
       </c>
-      <c r="D46" s="31">
+      <c r="D46" s="30">
         <v>0</v>
       </c>
-      <c r="E46" s="32">
+      <c r="E46" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C46-'Funcionários-Local-Extras-Marke'!$D46</f>
         <v>50000</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="73">
+      <c r="C47" s="82">
         <f>SUBTOTAL(109,Impressão[ESTIMADO])</f>
         <v>120800</v>
       </c>
-      <c r="D47" s="73">
+      <c r="D47" s="82">
         <f>SUBTOTAL(109,Impressão[REAL])</f>
         <v>0</v>
       </c>
-      <c r="E47" s="34">
+      <c r="E47" s="78">
         <f>SUBTOTAL(109,Impressão[ACIMA/ABAIXO])</f>
         <v>120800</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="79" t="s">
+      <c r="B48" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="80">
+      <c r="C48" s="60">
         <f>Impressão[[#Totals],[ESTIMADO]]+Música[[#Totals],[ESTIMADO]]+Festa[[#Totals],[ESTIMADO ANUAL]]+Roupas[[#Totals],[ESTIMADO ANUAL]]</f>
         <v>1719200</v>
       </c>
-      <c r="D48" s="38"/>
-      <c r="E48" s="39"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="36"/>
     </row>
     <row r="49" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="50" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="74" t="s">
+      <c r="B50" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="C50" s="75"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="77"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="57"/>
     </row>
     <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="28" t="s">
+      <c r="B51" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="44" t="s">
+      <c r="C51" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="44" t="s">
+      <c r="D51" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="29" t="s">
+      <c r="E51" s="87" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C52" s="78">
+      <c r="C52" s="58">
         <v>30000000</v>
       </c>
-      <c r="D52" s="78">
+      <c r="D52" s="58">
         <v>0</v>
       </c>
-      <c r="E52" s="32">
+      <c r="E52" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C52-'Funcionários-Local-Extras-Marke'!$D52</f>
         <v>30000000</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="81">
+      <c r="C53" s="61">
         <f>C52*8%</f>
         <v>2400000</v>
       </c>
-      <c r="D53" s="78">
+      <c r="D53" s="58">
         <v>0</v>
       </c>
-      <c r="E53" s="32">
+      <c r="E53" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C53-'Funcionários-Local-Extras-Marke'!$D53</f>
         <v>2400000</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="37" t="s">
+      <c r="B54" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="38">
+      <c r="C54" s="84">
         <f>C53</f>
         <v>2400000</v>
       </c>
-      <c r="D54" s="38">
+      <c r="D54" s="84">
         <f>SUBTOTAL(109,Música2[REAL])</f>
         <v>0</v>
       </c>
-      <c r="E54" s="39">
+      <c r="E54" s="85">
         <f>SUBTOTAL(109,Música2[ACIMA/ABAIXO])</f>
         <v>32400000</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="33"/>
+      <c r="C55" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4431,6 +4697,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100438D081558299543A3D90C741E9D9A9A" ma:contentTypeVersion="8" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="6307e9d03a483d8aaaad55333a2d33a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a4d4739c-b3d2-4350-8f47-3b8a709ccb2d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ddc1d36326b7f09edaeafea200ec074" ns2:_="">
     <xsd:import namespace="a4d4739c-b3d2-4350-8f47-3b8a709ccb2d"/>
@@ -4600,22 +4881,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{953F9F67-1E60-41F1-8D0A-2C9144BB5791}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C15B775D-9D4C-4008-98F9-E820ECDFE507}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97900851-B275-4B05-8F5D-F815934E192B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4631,21 +4914,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C15B775D-9D4C-4008-98F9-E820ECDFE507}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{953F9F67-1E60-41F1-8D0A-2C9144BB5791}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Custos para Edição.xlsx
+++ b/Custos para Edição.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Publica\TI0320\Cassio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cassio.rbraga\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E49AD05-9291-481D-96C1-DB7E06FE2D50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192137D7-05EC-43C2-9141-C45EC96AF6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Funcionários-Local-Extras-Marke'!$2:$2</definedName>
     <definedName name="Total_da_Festa_est">Festa[[#Totals],[ESTIMADO ANUAL]]</definedName>
-    <definedName name="Total_da_Festa_real">Festa[[#Totals],[REAL]]</definedName>
+    <definedName name="Total_da_Festa_real">Festa[[#Totals],[ESTIMATIVA EM %]]</definedName>
     <definedName name="Total_de_Decoração_est">#REF!</definedName>
     <definedName name="Total_de_Decoração_real">#REF!</definedName>
     <definedName name="Total_de_Flores_est">#REF!</definedName>
@@ -27,15 +27,15 @@
     <definedName name="Total_de_Fotografia_est">#REF!</definedName>
     <definedName name="Total_de_Fotografia_real">#REF!</definedName>
     <definedName name="Total_de_Impressão_gráfica_est">Impressão[[#Totals],[ESTIMADO]]</definedName>
-    <definedName name="Total_de_Impressão_gráfica_real">Impressão[[#Totals],[REAL]]</definedName>
-    <definedName name="Total_de_Música_entretenimento_est">Música[[#Totals],[ESTIMADO]]</definedName>
-    <definedName name="Total_de_Música_entretenimento_real">Música[[#Totals],[REAL]]</definedName>
+    <definedName name="Total_de_Impressão_gráfica_real">Impressão[[#Totals],[ESTIMATIVA EM %]]</definedName>
+    <definedName name="Total_de_Música_entretenimento_est">Música[[#Totals],[ESTIMADO ANUAL]]</definedName>
+    <definedName name="Total_de_Música_entretenimento_real">Música[[#Totals],[ESTIMATIVA EM %]]</definedName>
     <definedName name="Total_de_Outras_despesas_est">#REF!</definedName>
     <definedName name="Total_de_Outras_despesas_real">#REF!</definedName>
     <definedName name="Total_de_Presentes_est">#REF!</definedName>
     <definedName name="Total_de_Presentes_real">#REF!</definedName>
     <definedName name="Total_de_Roupas_est">Roupas[[#Totals],[ESTIMADO ANUAL]]</definedName>
-    <definedName name="Total_de_Roupas_real">Roupas[[#Totals],[REAL]]</definedName>
+    <definedName name="Total_de_Roupas_real">Roupas[[#Totals],[ESTIMATIVA EM %]]</definedName>
     <definedName name="Total_de_Viagem_transporte_est">#REF!</definedName>
     <definedName name="Total_de_Viagem_transporte_real">#REF!</definedName>
   </definedNames>
@@ -58,19 +58,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={423E396C-BC7A-4789-AFE6-1C43DEF629DD}</author>
     <author>tc={4F5185A9-8010-4F61-810B-0777DA2DE50F}</author>
   </authors>
   <commentList>
-    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{423E396C-BC7A-4789-AFE6-1C43DEF629DD}">
-      <text>
-        <t>[Comentário encadeado]
-Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
-Comentário:
-    é um instrumento que integra capital e trabalho, tendo como principal objetivo o aumento da produtividade de forma que, nesta situação, a remuneração dos funcionários varia conforme o alcance das metas da organização.</t>
-      </text>
-    </comment>
-    <comment ref="C34" authorId="1" shapeId="0" xr:uid="{4F5185A9-8010-4F61-810B-0777DA2DE50F}">
+    <comment ref="C33" authorId="0" shapeId="0" xr:uid="{4F5185A9-8010-4F61-810B-0777DA2DE50F}">
       <text>
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
@@ -83,8 +74,30 @@
 </comments>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
   <si>
     <t>Crie um Orçamento de casamento nesta planilha. Atualize o resumo e o gráfico na planilha atual inserindo detalhes nas tabelas das planilhas Roupas-Festa-Música-Fotos e Decor-Flores-Presentes-Viagem. Instruções úteis sobre como usar esta planilha estão nas células desta coluna. O rótulo Data do casamento está na célula C1.</t>
   </si>
@@ -303,6 +316,12 @@
   </si>
   <si>
     <t>Total de Ganho</t>
+  </si>
+  <si>
+    <t>PPR (RECEITA - DESPESAS)</t>
+  </si>
+  <si>
+    <t>ESTIMATIVA EM %</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1043,7 @@
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1169,6 +1188,23 @@
     <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="38" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="38" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1193,23 +1229,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="37" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="38" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="38" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="38" borderId="0" xfId="12" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="38" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="38" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="20% - Ênfase1" xfId="6" builtinId="30" customBuiltin="1"/>
@@ -1260,7 +1291,360 @@
     <cellStyle name="Total" xfId="5" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vírgula" xfId="8" builtinId="3" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="72">
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1282,6 +1666,101 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1302,6 +1781,15 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1322,6 +1810,30 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1342,263 +1854,23 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFA9A9A9"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1621,6 +1893,17 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1629,119 +1912,24 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
+          <bgColor rgb="FF305353"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1985,15 +2173,15 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Orçamento de casamento" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Orçamento de casamento" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="61"/>
-      <tableStyleElement type="headerRow" dxfId="60"/>
-      <tableStyleElement type="totalRow" dxfId="59"/>
-      <tableStyleElement type="lastColumn" dxfId="58"/>
+      <tableStyleElement type="wholeTable" dxfId="71"/>
+      <tableStyleElement type="headerRow" dxfId="70"/>
+      <tableStyleElement type="totalRow" dxfId="69"/>
+      <tableStyleElement type="lastColumn" dxfId="68"/>
     </tableStyle>
     <tableStyle name="Resumo do orçamento de casamento" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="57"/>
-      <tableStyleElement type="headerRow" dxfId="56"/>
-      <tableStyleElement type="totalRow" dxfId="55"/>
+      <tableStyleElement type="wholeTable" dxfId="67"/>
+      <tableStyleElement type="headerRow" dxfId="66"/>
+      <tableStyleElement type="totalRow" dxfId="65"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2398,16 +2586,16 @@
                 <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.99859999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2962,13 +3150,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ResumoDoOrçamento" displayName="ResumoDoOrçamento" ref="C6:F11" totalsRowCount="1" headerRowDxfId="54" totalsRowCellStyle="Total">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ResumoDoOrçamento" displayName="ResumoDoOrçamento" ref="C6:F11" totalsRowCount="1" headerRowDxfId="64" totalsRowCellStyle="Total">
   <autoFilter ref="C6:F10" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CATEGORIA" totalsRowLabel="Total de despesas" totalsRowDxfId="53" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ESTIMADO" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="47">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CATEGORIA" totalsRowLabel="Total de despesas" totalsRowDxfId="63" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ESTIMADO" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="57">
       <calculatedColumnFormula>ResumoDoOrçamento[[#This Row],[ESTIMADO]]-ResumoDoOrçamento[[#This Row],[REAL]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2982,18 +3170,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Roupas" displayName="Roupas" ref="B2:E15" totalsRowCount="1" headerRowDxfId="24" totalsRowDxfId="25">
-  <autoFilter ref="B2:E14" xr:uid="{00000000-0009-0000-0100-00000C000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Roupas" displayName="Roupas" ref="B2:E14" totalsRowCount="1" headerRowDxfId="56" totalsRowDxfId="55">
+  <autoFilter ref="B2:E13" xr:uid="{00000000-0009-0000-0100-00000C000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Custo¹" dataDxfId="46" totalsRowDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ESTIMADO ANUAL" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="26">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Custo¹" dataDxfId="54" totalsRowDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ESTIMADO ANUAL" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ESTIMATIVA EM %" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="15" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="14">
       <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C3-'Funcionários-Local-Extras-Marke'!$D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3007,19 +3195,19 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Festa" displayName="Festa" ref="B20:E28" totalsRowCount="1" headerRowDxfId="3" totalsRowDxfId="19">
-  <autoFilter ref="B20:E27" xr:uid="{00000000-0009-0000-0100-00000D000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Festa" displayName="Festa" ref="B19:E27" totalsRowCount="1" headerRowDxfId="51" totalsRowDxfId="50">
+  <autoFilter ref="B19:E26" xr:uid="{00000000-0009-0000-0100-00000D000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Custo" dataDxfId="42" totalsRowDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ESTIMADO ANUAL" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="20">
-      <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C21-'Funcionários-Local-Extras-Marke'!$D21</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Custo" dataDxfId="49" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ESTIMADO ANUAL" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ESTIMATIVA EM %" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="4" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="5">
+      <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C20-'Funcionários-Local-Extras-Marke'!$D20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Orçamento de casamento" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3032,19 +3220,19 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Música" displayName="Música" ref="B32:E36" totalsRowCount="1" headerRowDxfId="2" totalsRowDxfId="14">
-  <autoFilter ref="B32:E35" xr:uid="{00000000-0009-0000-0100-00000E000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Música" displayName="Música" ref="B31:E35" totalsRowCount="1" headerRowDxfId="46" totalsRowDxfId="45">
+  <autoFilter ref="B31:E34" xr:uid="{00000000-0009-0000-0100-00000E000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Gastos Extras" dataDxfId="38" totalsRowDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="ESTIMADO" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="15">
-      <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C33-'Funcionários-Local-Extras-Marke'!$D33</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Gastos Extras" dataDxfId="44" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="ESTIMADO ANUAL" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ESTIMATIVA EM %" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="0">
+      <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C32-'Funcionários-Local-Extras-Marke'!$D32</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Orçamento de casamento" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3057,13 +3245,13 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Impressão" displayName="Impressão" ref="B39:E47" totalsRowCount="1" headerRowDxfId="1" totalsRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Impressão" displayName="Impressão" ref="B38:E46" totalsRowCount="1" headerRowDxfId="40" totalsRowDxfId="39">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Marketing" totalsRowDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="ESTIMADO" totalsRowFunction="sum" totalsRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" totalsRowDxfId="10">
-      <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C40-'Funcionários-Local-Extras-Marke'!$D40</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Marketing" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="ESTIMADO" totalsRowFunction="sum" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ESTIMATIVA EM %" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="9" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" totalsRowDxfId="8">
+      <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C39-'Funcionários-Local-Extras-Marke'!$D39</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Orçamento de casamento" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3076,16 +3264,39 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{542CD9DA-BE67-4476-B3ED-94AAA93D6D50}" name="Música2" displayName="Música2" ref="B51:E54" totalsRowCount="1" headerRowDxfId="0" totalsRowDxfId="4">
-  <autoFilter ref="B51:E53" xr:uid="{542CD9DA-BE67-4476-B3ED-94AAA93D6D50}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{542CD9DA-BE67-4476-B3ED-94AAA93D6D50}" name="Música2" displayName="Música2" ref="B50:E53" totalsRowCount="1" headerRowDxfId="38" totalsRowDxfId="37">
+  <autoFilter ref="B50:E52" xr:uid="{542CD9DA-BE67-4476-B3ED-94AAA93D6D50}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F828AF69-2C3D-4F7C-BAEB-AE441072E02C}" name="CATEGORIA" totalsRowLabel="Total de Ganho" dataDxfId="33" totalsRowDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{49218F16-1EAB-4FE3-85CD-202EE002DE31}" name="ESTIMADO" totalsRowFunction="custom" dataDxfId="32" totalsRowDxfId="7">
-      <totalsRowFormula>C53</totalsRowFormula>
+    <tableColumn id="1" xr3:uid="{F828AF69-2C3D-4F7C-BAEB-AE441072E02C}" name="CATEGORIA" totalsRowLabel="Total de Ganho" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{49218F16-1EAB-4FE3-85CD-202EE002DE31}" name="ESTIMADO" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="33">
+      <totalsRowFormula>C52</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B924C15A-4FC9-4943-9D4C-3A0A2C03CA14}" name="REAL" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{6A452F63-ECF6-47C3-9821-65724FEBC5DB}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="5">
-      <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C52-'Funcionários-Local-Extras-Marke'!$D52</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{B924C15A-4FC9-4943-9D4C-3A0A2C03CA14}" name="REAL" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{6A452F63-ECF6-47C3-9821-65724FEBC5DB}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29">
+      <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C51-'Funcionários-Local-Extras-Marke'!$D51</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="Orçamento de casamento" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Insira o item da Categoria e os Custos reais e estimados com Música e Entretenimento nesta tabela. Os Valores Acima ou Abaixo e o Total são calculados automaticamente, e o ícone é atualizado"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4266C49C-9654-40DC-9A5F-25C348E80149}" name="Música23" displayName="Música23" ref="B56:E58" totalsRowCount="1" headerRowDxfId="28" totalsRowDxfId="27">
+  <autoFilter ref="B56:E57" xr:uid="{4266C49C-9654-40DC-9A5F-25C348E80149}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{5D65B7CF-5AD3-4268-8BC1-C80E53FAD300}" name="CATEGORIA" totalsRowLabel="Total de Ganho" dataDxfId="26" totalsRowDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{71F99B25-C26E-47AB-9E9C-02750042D3A6}" name="ESTIMADO" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="21">
+      <calculatedColumnFormula>Música2[[#Totals],[ESTIMADO]]-C47</calculatedColumnFormula>
+      <totalsRowFormula array="1">Música23[ESTIMADO]</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{4D9DCACE-DC44-425B-B8B8-AC07284B5FAE}" name="REAL" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{AA5C067B-5ADD-4FAD-950B-40696FBD4EB4}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="19">
+      <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C57-'Funcionários-Local-Extras-Marke'!$D57</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Orçamento de casamento" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3360,10 +3571,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B14" dT="2022-04-01T23:19:19.92" personId="{97E87E9D-ECF8-4E35-9889-A515C6A71A37}" id="{423E396C-BC7A-4789-AFE6-1C43DEF629DD}">
-    <text>é um instrumento que integra capital e trabalho, tendo como principal objetivo o aumento da produtividade de forma que, nesta situação, a remuneração dos funcionários varia conforme o alcance das metas da organização.</text>
-  </threadedComment>
-  <threadedComment ref="C34" dT="2022-04-01T23:22:43.00" personId="{97E87E9D-ECF8-4E35-9889-A515C6A71A37}" id="{4F5185A9-8010-4F61-810B-0777DA2DE50F}">
+  <threadedComment ref="C33" dT="2022-04-01T23:22:43.00" personId="{97E87E9D-ECF8-4E35-9889-A515C6A71A37}" id="{4F5185A9-8010-4F61-810B-0777DA2DE50F}">
     <text>Nesse custo, foi feito um contrato com as montadoras para arcar com 50% do custo.
 O valor que está demonstrado é a metade que a empresa tem que arcar</text>
   </threadedComment>
@@ -3411,7 +3619,7 @@
       <c r="B2" s="5"/>
       <c r="C2" s="23">
         <f ca="1">TODAY()+365</f>
-        <v>45017</v>
+        <v>45020</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="8"/>
@@ -3423,30 +3631,30 @@
         <v>3</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3480,11 +3688,11 @@
       </c>
       <c r="E7" s="46">
         <f>Total_de_Roupas_real</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="42">
         <f>ResumoDoOrçamento[[#This Row],[ESTIMADO]]-ResumoDoOrçamento[[#This Row],[REAL]]</f>
-        <v>1218000</v>
+        <v>1217999</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -3495,15 +3703,15 @@
       </c>
       <c r="D8" s="46">
         <f>Total_da_Festa_est</f>
-        <v>67900</v>
+        <v>89900</v>
       </c>
       <c r="E8" s="46">
         <f>Total_da_Festa_real</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="42">
         <f>ResumoDoOrçamento[[#This Row],[ESTIMADO]]-ResumoDoOrçamento[[#This Row],[REAL]]</f>
-        <v>67900</v>
+        <v>89899</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -3514,7 +3722,7 @@
       </c>
       <c r="D9" s="46">
         <f>Total_de_Música_entretenimento_est</f>
-        <v>312500</v>
+        <v>402500</v>
       </c>
       <c r="E9" s="46">
         <f>Total_de_Música_entretenimento_real</f>
@@ -3522,7 +3730,7 @@
       </c>
       <c r="F9" s="42">
         <f>ResumoDoOrçamento[[#This Row],[ESTIMADO]]-ResumoDoOrçamento[[#This Row],[REAL]]</f>
-        <v>312500</v>
+        <v>402500</v>
       </c>
       <c r="G9" s="3"/>
     </row>
@@ -3537,11 +3745,11 @@
       </c>
       <c r="E10" s="46">
         <f>Total_de_Impressão_gráfica_real</f>
-        <v>0</v>
+        <v>0.99859999999999993</v>
       </c>
       <c r="F10" s="42">
         <f>ResumoDoOrçamento[[#This Row],[ESTIMADO]]-ResumoDoOrçamento[[#This Row],[REAL]]</f>
-        <v>120800</v>
+        <v>120799.00139999999</v>
       </c>
       <c r="G10" s="3"/>
     </row>
@@ -3552,15 +3760,15 @@
       </c>
       <c r="D11" s="47">
         <f>SUBTOTAL(109,ResumoDoOrçamento[ESTIMADO])</f>
-        <v>1719200</v>
+        <v>1831200</v>
       </c>
       <c r="E11" s="48">
         <f>SUBTOTAL(109,ResumoDoOrçamento[REAL])</f>
-        <v>0</v>
+        <v>2.9985999999999997</v>
       </c>
       <c r="F11" s="44">
         <f>SUBTOTAL(109,ResumoDoOrçamento[ACIMA/ABAIXO])</f>
-        <v>1719200</v>
+        <v>1831197.0014</v>
       </c>
       <c r="G11" s="20"/>
     </row>
@@ -3577,204 +3785,204 @@
         <v>15</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="3"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="3"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="3"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
       <c r="G21" s="21"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="3"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="3"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="3"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="3"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="3"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="3"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76"/>
+      <c r="F35" s="76"/>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="3"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="3"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3841,10 +4049,10 @@
     <tabColor theme="4" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3854,12 +4062,12 @@
     <col min="3" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="4.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
@@ -3873,162 +4081,165 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="81" t="s">
+      <c r="D2" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="67" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>57</v>
       </c>
       <c r="C3" s="30">
         <v>120000</v>
       </c>
-      <c r="D3" s="30">
-        <v>0</v>
+      <c r="D3" s="90">
+        <v>9.8500000000000004E-2</v>
       </c>
       <c r="E3" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C3-'Funcionários-Local-Extras-Marke'!$D3</f>
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>119999.90150000001</v>
+      </c>
+      <c r="G3" s="89">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="29" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="30">
         <v>120000</v>
       </c>
-      <c r="D4" s="30">
-        <v>0</v>
+      <c r="D4" s="90">
+        <v>9.8500000000000004E-2</v>
       </c>
       <c r="E4" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C4-'Funcionários-Local-Extras-Marke'!$D4</f>
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>119999.90150000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="29" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="30">
         <v>120000</v>
       </c>
-      <c r="D5" s="30">
-        <v>0</v>
+      <c r="D5" s="90">
+        <v>9.8500000000000004E-2</v>
       </c>
       <c r="E5" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C5-'Funcionários-Local-Extras-Marke'!$D5</f>
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>119999.90150000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="30">
         <v>120000</v>
       </c>
-      <c r="D6" s="30">
-        <v>0</v>
+      <c r="D6" s="90">
+        <v>9.8500000000000004E-2</v>
       </c>
       <c r="E6" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C6-'Funcionários-Local-Extras-Marke'!$D6</f>
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>119999.90150000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="29" t="s">
         <v>47</v>
       </c>
       <c r="C7" s="30">
         <v>120000</v>
       </c>
-      <c r="D7" s="30">
-        <v>0</v>
+      <c r="D7" s="90">
+        <v>9.8500000000000004E-2</v>
       </c>
       <c r="E7" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C7-'Funcionários-Local-Extras-Marke'!$D7</f>
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>119999.90150000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="53" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="30">
         <v>150000</v>
       </c>
-      <c r="D8" s="30">
-        <v>0</v>
+      <c r="D8" s="90">
+        <v>0.123</v>
       </c>
       <c r="E8" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C8-'Funcionários-Local-Extras-Marke'!$D8</f>
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>149999.87700000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="29" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="30">
         <v>108000</v>
       </c>
-      <c r="D9" s="30">
-        <v>0</v>
+      <c r="D9" s="90">
+        <v>8.8700000000000001E-2</v>
       </c>
       <c r="E9" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C9-'Funcionários-Local-Extras-Marke'!$D9</f>
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>107999.91130000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="29" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="30">
         <v>108000</v>
       </c>
-      <c r="D10" s="30">
-        <v>0</v>
+      <c r="D10" s="90">
+        <v>8.8700000000000001E-2</v>
       </c>
       <c r="E10" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C10-'Funcionários-Local-Extras-Marke'!$D10</f>
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>107999.91130000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="29" t="s">
         <v>59</v>
       </c>
       <c r="C11" s="30">
         <v>108000</v>
       </c>
-      <c r="D11" s="30">
-        <v>0</v>
+      <c r="D11" s="90">
+        <v>8.8700000000000001E-2</v>
       </c>
       <c r="E11" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C11-'Funcionários-Local-Extras-Marke'!$D11</f>
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>107999.91130000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="29" t="s">
         <v>60</v>
@@ -4036,15 +4247,15 @@
       <c r="C12" s="30">
         <v>72000</v>
       </c>
-      <c r="D12" s="30">
-        <v>0</v>
+      <c r="D12" s="90">
+        <v>5.9200000000000003E-2</v>
       </c>
       <c r="E12" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C12-'Funcionários-Local-Extras-Marke'!$D12</f>
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>71999.940799999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="29" t="s">
         <v>61</v>
@@ -4052,588 +4263,643 @@
       <c r="C13" s="30">
         <v>72000</v>
       </c>
-      <c r="D13" s="30">
-        <v>0</v>
+      <c r="D13" s="90">
+        <v>5.9200000000000003E-2</v>
       </c>
       <c r="E13" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C13-'Funcionários-Local-Extras-Marke'!$D13</f>
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="30">
-        <v>0</v>
-      </c>
-      <c r="D14" s="30">
-        <v>0</v>
-      </c>
-      <c r="E14" s="31">
-        <f>'Funcionários-Local-Extras-Marke'!$C14-'Funcionários-Local-Extras-Marke'!$D14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="76" t="s">
+        <v>71999.940799999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15"/>
+      <c r="B14" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="77">
+      <c r="C14" s="63">
         <f>SUBTOTAL(109,Roupas[ESTIMADO ANUAL])</f>
         <v>1218000</v>
       </c>
-      <c r="D15" s="77">
-        <f>SUBTOTAL(109,Roupas[REAL])</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="78">
+      <c r="D14" s="91">
+        <f>SUBTOTAL(109,Roupas[ESTIMATIVA EM %])</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="64">
         <f>SUBTOTAL(109,Roupas[ACIMA/ABAIXO])</f>
-        <v>1218000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1217999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15"/>
+      <c r="B15" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="82"/>
+    </row>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15"/>
-      <c r="B16" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="79"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
-      <c r="B17" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="39"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="34"/>
+      <c r="E18" s="28"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="E19" s="28"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="79" t="s">
+      <c r="B19" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="86" t="s">
+      <c r="C19" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="86" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="87" t="s">
+      <c r="D19" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="73" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="30">
+        <v>3000</v>
+      </c>
+      <c r="D20" s="90">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E20" s="31">
+        <f>'Funcionários-Local-Extras-Marke'!$C20-'Funcionários-Local-Extras-Marke'!$D20</f>
+        <v>2999.9659999999999</v>
+      </c>
+      <c r="G20" s="92">
+        <v>5.1499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="30">
-        <v>3000</v>
-      </c>
-      <c r="D21" s="30">
-        <v>0</v>
+        <v>1500</v>
+      </c>
+      <c r="D21" s="90">
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="E21" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C21-'Funcionários-Local-Extras-Marke'!$D21</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1499.9825000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" s="30">
-        <v>1500</v>
-      </c>
-      <c r="D22" s="30">
-        <v>0</v>
+        <v>2400</v>
+      </c>
+      <c r="D22" s="90">
+        <v>2.75E-2</v>
       </c>
       <c r="E22" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C22-'Funcionários-Local-Extras-Marke'!$D22</f>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2399.9724999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="30">
-        <v>2400</v>
-      </c>
-      <c r="D23" s="30">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="D23" s="90">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="E23" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C23-'Funcionários-Local-Extras-Marke'!$D23</f>
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>499.99950000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="29" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C24" s="30">
-        <v>500</v>
-      </c>
-      <c r="D24" s="30">
-        <v>0</v>
+        <v>60000</v>
+      </c>
+      <c r="D24" s="94">
+        <v>0.67</v>
       </c>
       <c r="E24" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C24-'Funcionários-Local-Extras-Marke'!$D24</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>59999.33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" s="30">
-        <v>60000</v>
-      </c>
-      <c r="D25" s="30">
-        <v>0</v>
+        <v>22000</v>
+      </c>
+      <c r="D25" s="90">
+        <v>0.25</v>
       </c>
       <c r="E25" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C25-'Funcionários-Local-Extras-Marke'!$D25</f>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>21999.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="29" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C26" s="30">
-        <v>0</v>
-      </c>
-      <c r="D26" s="30">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="D26" s="90">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="E26" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C26-'Funcionários-Local-Extras-Marke'!$D26</f>
+        <v>499.99950000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
+      <c r="B27" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="63">
+        <f>SUBTOTAL(109,Festa[ESTIMADO ANUAL])</f>
+        <v>89900</v>
+      </c>
+      <c r="D27" s="95">
+        <f>SUBTOTAL(109,Festa[ESTIMATIVA EM %])</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="64">
+        <f>SUBTOTAL(109,Festa[ACIMA/ABAIXO])</f>
+        <v>89899</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="77" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="79"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="83"/>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="85"/>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="34"/>
+      <c r="E30" s="28"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+      <c r="B32" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="30">
+        <v>60000</v>
+      </c>
+      <c r="D32" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="30">
-        <v>500</v>
-      </c>
-      <c r="D27" s="30">
-        <v>0</v>
-      </c>
-      <c r="E27" s="31">
-        <f>'Funcionários-Local-Extras-Marke'!$C27-'Funcionários-Local-Extras-Marke'!$D27</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
-      <c r="B28" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="77">
-        <f>SUBTOTAL(109,Festa[ESTIMADO ANUAL])</f>
-        <v>67900</v>
-      </c>
-      <c r="D28" s="77">
-        <f>SUBTOTAL(109,Festa[REAL])</f>
-        <v>0</v>
-      </c>
-      <c r="E28" s="78">
-        <f>SUBTOTAL(109,Festa[ACIMA/ABAIXO])</f>
-        <v>67900</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="66"/>
-    </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="70"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="72"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="34"/>
-      <c r="E31" s="28"/>
-    </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="86" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="86" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="87" t="s">
-        <v>9</v>
+      <c r="E32" s="31">
+        <f>'Funcionários-Local-Extras-Marke'!$C32-'Funcionários-Local-Extras-Marke'!$D32</f>
+        <v>60000</v>
+      </c>
+      <c r="G32" s="92">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="H32" s="51">
+        <v>2000000</v>
+      </c>
+      <c r="I32" s="96">
+        <f>H32*G32</f>
+        <v>350000</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
       <c r="B33" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="30">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="C33" s="50">
+        <f>625000/2</f>
+        <v>312500</v>
       </c>
       <c r="D33" s="30">
         <v>0</v>
       </c>
       <c r="E33" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C33-'Funcionários-Local-Extras-Marke'!$D33</f>
-        <v>0</v>
+        <v>312500</v>
+      </c>
+      <c r="G33" s="51">
+        <v>130000</v>
+      </c>
+      <c r="H33" s="51">
+        <v>45000</v>
+      </c>
+      <c r="I33" s="51">
+        <v>440000</v>
+      </c>
+      <c r="J33" s="52">
+        <v>10000</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="50">
-        <f>625000/2</f>
-        <v>312500</v>
+        <v>30000</v>
       </c>
       <c r="D34" s="30">
         <v>0</v>
       </c>
       <c r="E34" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C34-'Funcionários-Local-Extras-Marke'!$D34</f>
-        <v>312500</v>
-      </c>
-      <c r="G34" s="51">
-        <v>130000</v>
-      </c>
-      <c r="H34" s="51">
-        <v>45000</v>
-      </c>
-      <c r="I34" s="51">
-        <v>440000</v>
-      </c>
-      <c r="J34" s="52">
-        <v>10000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="30">
+      <c r="B35" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="63">
+        <f>SUBTOTAL(109,Música[ESTIMADO ANUAL])</f>
+        <v>402500</v>
+      </c>
+      <c r="D35" s="63">
+        <f>SUBTOTAL(109,Música[ESTIMATIVA EM %])</f>
         <v>0</v>
       </c>
-      <c r="D35" s="30">
-        <v>0</v>
-      </c>
-      <c r="E35" s="31">
-        <f>'Funcionários-Local-Extras-Marke'!$C35-'Funcionários-Local-Extras-Marke'!$D35</f>
-        <v>0</v>
+      <c r="E35" s="64">
+        <f>SUBTOTAL(109,Música[ACIMA/ABAIXO])</f>
+        <v>402500</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="77">
-        <f>SUBTOTAL(109,Música[ESTIMADO])</f>
-        <v>312500</v>
-      </c>
-      <c r="D36" s="77">
-        <f>SUBTOTAL(109,Música[REAL])</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="78">
-        <f>SUBTOTAL(109,Música[ACIMA/ABAIXO])</f>
-        <v>312500</v>
-      </c>
+      <c r="B36" s="86"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="88"/>
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="73"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="75"/>
+      <c r="A37" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="34"/>
+      <c r="E37" s="28"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="34"/>
-      <c r="E38" s="28"/>
+      <c r="A38" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="73" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="86" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="86" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="87" t="s">
-        <v>9</v>
+      <c r="B39" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="50">
+        <v>5000</v>
+      </c>
+      <c r="D39" s="90">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="E39" s="31">
+        <f>'Funcionários-Local-Extras-Marke'!$C39-'Funcionários-Local-Extras-Marke'!$D39</f>
+        <v>4999.9584999999997</v>
+      </c>
+      <c r="G39" s="92">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" s="50">
+      <c r="B40" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="30">
         <v>5000</v>
       </c>
-      <c r="D40" s="30">
-        <v>0</v>
+      <c r="D40" s="90">
+        <v>4.1500000000000002E-2</v>
       </c>
       <c r="E40" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C40-'Funcionários-Local-Extras-Marke'!$D40</f>
-        <v>5000</v>
+        <v>4999.9584999999997</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="49" t="s">
-        <v>39</v>
+      <c r="B41" s="29" t="s">
+        <v>40</v>
       </c>
       <c r="C41" s="30">
         <v>5000</v>
       </c>
-      <c r="D41" s="30">
-        <v>0</v>
+      <c r="D41" s="90">
+        <v>4.1500000000000002E-2</v>
       </c>
       <c r="E41" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C41-'Funcionários-Local-Extras-Marke'!$D41</f>
-        <v>5000</v>
+        <v>4999.9584999999997</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C42" s="30">
-        <v>5000</v>
-      </c>
-      <c r="D42" s="30">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="D42" s="90">
+        <v>1E-4</v>
       </c>
       <c r="E42" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C42-'Funcionários-Local-Extras-Marke'!$D42</f>
-        <v>5000</v>
+        <v>799.99990000000003</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="30">
-        <v>800</v>
-      </c>
-      <c r="D43" s="30">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="C43" s="50">
+        <v>30000</v>
+      </c>
+      <c r="D43" s="90">
+        <v>0.25</v>
       </c>
       <c r="E43" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C43-'Funcionários-Local-Extras-Marke'!$D43</f>
-        <v>800</v>
+        <v>29999.75</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="29" t="s">
-        <v>42</v>
+      <c r="A44" s="15"/>
+      <c r="B44" s="53" t="s">
+        <v>43</v>
       </c>
       <c r="C44" s="50">
-        <v>30000</v>
-      </c>
-      <c r="D44" s="30">
-        <v>0</v>
+        <v>25000</v>
+      </c>
+      <c r="D44" s="90">
+        <v>0.21</v>
       </c>
       <c r="E44" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C44-'Funcionários-Local-Extras-Marke'!$D44</f>
-        <v>30000</v>
+        <v>24999.79</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
-      <c r="B45" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" s="50">
-        <v>25000</v>
-      </c>
-      <c r="D45" s="30">
-        <v>0</v>
+      <c r="B45" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="30">
+        <v>50000</v>
+      </c>
+      <c r="D45" s="90">
+        <v>0.41399999999999998</v>
       </c>
       <c r="E45" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C45-'Funcionários-Local-Extras-Marke'!$D45</f>
-        <v>25000</v>
+        <v>49999.586000000003</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" s="30">
-        <v>50000</v>
-      </c>
-      <c r="D46" s="30">
-        <v>0</v>
-      </c>
-      <c r="E46" s="31">
-        <f>'Funcionários-Local-Extras-Marke'!$C46-'Funcionários-Local-Extras-Marke'!$D46</f>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="76" t="s">
+      <c r="B46" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="82">
+      <c r="C46" s="68">
         <f>SUBTOTAL(109,Impressão[ESTIMADO])</f>
         <v>120800</v>
       </c>
-      <c r="D47" s="82">
-        <f>SUBTOTAL(109,Impressão[REAL])</f>
+      <c r="D46" s="93">
+        <f>SUBTOTAL(109,Impressão[ESTIMATIVA EM %])</f>
+        <v>0.99859999999999993</v>
+      </c>
+      <c r="E46" s="64">
+        <f>SUBTOTAL(109,Impressão[ACIMA/ABAIXO])</f>
+        <v>120799.00140000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="60">
+        <f>Impressão[[#Totals],[ESTIMADO]]+Música[[#Totals],[ESTIMADO ANUAL]]+Festa[[#Totals],[ESTIMADO ANUAL]]+Roupas[[#Totals],[ESTIMADO ANUAL]]</f>
+        <v>1831200</v>
+      </c>
+      <c r="D47" s="35"/>
+      <c r="E47" s="36"/>
+    </row>
+    <row r="48" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="55"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="57"/>
+    </row>
+    <row r="50" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="58">
+        <v>30000000</v>
+      </c>
+      <c r="D51" s="58">
         <v>0</v>
       </c>
-      <c r="E47" s="78">
-        <f>SUBTOTAL(109,Impressão[ACIMA/ABAIXO])</f>
-        <v>120800</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="60">
-        <f>Impressão[[#Totals],[ESTIMADO]]+Música[[#Totals],[ESTIMADO]]+Festa[[#Totals],[ESTIMADO ANUAL]]+Roupas[[#Totals],[ESTIMADO ANUAL]]</f>
-        <v>1719200</v>
-      </c>
-      <c r="D48" s="35"/>
-      <c r="E48" s="36"/>
-    </row>
-    <row r="49" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" s="55"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="57"/>
-    </row>
-    <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="88" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="88" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="87" t="s">
-        <v>9</v>
+      <c r="E51" s="31">
+        <f>'Funcionários-Local-Extras-Marke'!$C51-'Funcionários-Local-Extras-Marke'!$D51</f>
+        <v>30000000</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="58">
-        <v>30000000</v>
+        <v>67</v>
+      </c>
+      <c r="C52" s="61">
+        <f>C51*8%</f>
+        <v>2400000</v>
       </c>
       <c r="D52" s="58">
         <v>0</v>
       </c>
       <c r="E52" s="31">
         <f>'Funcionários-Local-Extras-Marke'!$C52-'Funcionários-Local-Extras-Marke'!$D52</f>
-        <v>30000000</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" s="61">
-        <f>C52*8%</f>
         <v>2400000</v>
       </c>
-      <c r="D53" s="58">
-        <v>0</v>
-      </c>
-      <c r="E53" s="31">
-        <f>'Funcionários-Local-Extras-Marke'!$C53-'Funcionários-Local-Extras-Marke'!$D53</f>
+    </row>
+    <row r="53" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="70">
+        <f>C52</f>
         <v>2400000</v>
       </c>
-    </row>
-    <row r="54" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="C54" s="84">
-        <f>C53</f>
-        <v>2400000</v>
-      </c>
-      <c r="D54" s="84">
+      <c r="D53" s="70">
         <f>SUBTOTAL(109,Música2[REAL])</f>
         <v>0</v>
       </c>
-      <c r="E54" s="85">
+      <c r="E53" s="71">
         <f>SUBTOTAL(109,Música2[ACIMA/ABAIXO])</f>
         <v>32400000</v>
       </c>
     </row>
+    <row r="54" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="32"/>
+    </row>
     <row r="55" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="32"/>
+      <c r="B55" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="55"/>
+      <c r="D55" s="56"/>
+      <c r="E55" s="57"/>
+    </row>
+    <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57" s="58">
+        <f>Música2[[#Totals],[ESTIMADO]]-C47</f>
+        <v>568800</v>
+      </c>
+      <c r="D57" s="58">
+        <v>0</v>
+      </c>
+      <c r="E57" s="31">
+        <f>'Funcionários-Local-Extras-Marke'!$C57-'Funcionários-Local-Extras-Marke'!$D57</f>
+        <v>568800</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="70" cm="1">
+        <f t="array" ref="C58">Música23[ESTIMADO]</f>
+        <v>568800</v>
+      </c>
+      <c r="D58" s="70">
+        <f>SUBTOTAL(109,Música23[REAL])</f>
+        <v>0</v>
+      </c>
+      <c r="E58" s="71">
+        <f>SUBTOTAL(109,Música23[ACIMA/ABAIXO])</f>
+        <v>568800</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B15:E15"/>
     <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B36:E36"/>
     <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B17:E17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4642,18 +4908,19 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
-  <tableParts count="5">
+  <tableParts count="6">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="162" id="{55199E56-DD9C-4A4F-BED9-16F56CCFDA0D}">
+          <x14:cfRule type="iconSet" priority="163" id="{55199E56-DD9C-4A4F-BED9-16F56CCFDA0D}">
             <x14:iconSet iconSet="3Triangles" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4669,10 +4936,10 @@
               <x14:cfIcon iconSet="3ArrowsGray" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E40:E46 E33:E35 E21:E27 E3:E14</xm:sqref>
+          <xm:sqref>E39:E45 E32:E34 E20:E26 E3:E13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="163" id="{FAF49BCC-35D8-4591-BE60-BF0505A8DFBB}">
+          <x14:cfRule type="iconSet" priority="164" id="{FAF49BCC-35D8-4591-BE60-BF0505A8DFBB}">
             <x14:iconSet iconSet="3Triangles" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4688,7 +4955,26 @@
               <x14:cfIcon iconSet="3ArrowsGray" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>E52:E53</xm:sqref>
+          <xm:sqref>E51:E52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="165" id="{782E429E-BB1B-4802-A1E0-F0C94A54EC7D}">
+            <x14:iconSet iconSet="3Triangles" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3ArrowsGray" iconId="0"/>
+              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
+              <x14:cfIcon iconSet="3ArrowsGray" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>E57</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4706,12 +4992,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100438D081558299543A3D90C741E9D9A9A" ma:contentTypeVersion="8" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="6307e9d03a483d8aaaad55333a2d33a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a4d4739c-b3d2-4350-8f47-3b8a709ccb2d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ddc1d36326b7f09edaeafea200ec074" ns2:_="">
     <xsd:import namespace="a4d4739c-b3d2-4350-8f47-3b8a709ccb2d"/>
@@ -4881,6 +5161,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{953F9F67-1E60-41F1-8D0A-2C9144BB5791}">
   <ds:schemaRefs>
@@ -4890,15 +5176,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C15B775D-9D4C-4008-98F9-E820ECDFE507}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97900851-B275-4B05-8F5D-F815934E192B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4914,4 +5191,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C15B775D-9D4C-4008-98F9-E820ECDFE507}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Custos para Edição.xlsx
+++ b/Custos para Edição.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cassio.rbraga\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cássio\Documents\SENAC\PROJETO_INTTEGRADOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192137D7-05EC-43C2-9141-C45EC96AF6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385B5FAC-21D8-4397-9804-E223CF64AF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Orçamento de Empresa" sheetId="1" r:id="rId1"/>
-    <sheet name="Funcionários-Local-Extras-Marke" sheetId="2" r:id="rId2"/>
+    <sheet name="Funcionários-Local-Extras-Marke" sheetId="2" r:id="rId1"/>
+    <sheet name="Gráfico-Custo" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Funcionários-Local-Extras-Marke'!$2:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Funcionários-Local-Extras-Marke'!$2:$2</definedName>
     <definedName name="Total_da_Festa_est">Festa[[#Totals],[ESTIMADO ANUAL]]</definedName>
     <definedName name="Total_da_Festa_real">Festa[[#Totals],[ESTIMATIVA EM %]]</definedName>
     <definedName name="Total_de_Decoração_est">#REF!</definedName>
@@ -97,25 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
-  <si>
-    <t>Crie um Orçamento de casamento nesta planilha. Atualize o resumo e o gráfico na planilha atual inserindo detalhes nas tabelas das planilhas Roupas-Festa-Música-Fotos e Decor-Flores-Presentes-Viagem. Instruções úteis sobre como usar esta planilha estão nas células desta coluna. O rótulo Data do casamento está na célula C1.</t>
-  </si>
-  <si>
-    <t>Data do Levantamento:</t>
-  </si>
-  <si>
-    <t>Insira a Data do casamento na célula C2. Os Dias restantes são calculados automaticamente na célula E2.</t>
-  </si>
-  <si>
-    <t>O título desta planilha está na célula C3. A próxima instrução está na célula A6.</t>
-  </si>
-  <si>
-    <t>Resumo do orçamento Demetrivs</t>
-  </si>
-  <si>
-    <t>A Tabela de resumo do orçamento que começa na célula C6 é atualizada automaticamente. A próxima instrução está na célula A19.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
   <si>
     <t>CATEGORIA</t>
   </si>
@@ -132,22 +114,7 @@
     <t>Funcionários</t>
   </si>
   <si>
-    <t>Local Físico</t>
-  </si>
-  <si>
-    <t>Gastos Extras</t>
-  </si>
-  <si>
     <t>Marketing</t>
-  </si>
-  <si>
-    <t>Total de despesas</t>
-  </si>
-  <si>
-    <t>O gráfico de pizza na célula C19 é atualizado automaticamente.</t>
-  </si>
-  <si>
-    <t>O gráfico de pizza que mostra a porcentagem de despesas de cada categoria está nesta célula.</t>
   </si>
   <si>
     <t>Insira os custos Real e Estimado para cada categoria nas respectivas tabelas desta planilha. O valor acima ou abaixo é calculado automaticamente. O rótulo Roupas está na célula à direita. Instruções úteis sobre como usar esta planilha estão nas células desta coluna. Pressione Seta para baixo para começar.</t>
@@ -323,20 +290,43 @@
   <si>
     <t>ESTIMATIVA EM %</t>
   </si>
+  <si>
+    <t>Escritóui</t>
+  </si>
+  <si>
+    <t>Veículos</t>
+  </si>
+  <si>
+    <t>RESUMO DOS CUSTOS &amp; GANHOS</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>OBS</t>
+  </si>
+  <si>
+    <t>VALOR ESTIMADO</t>
+  </si>
+  <si>
+    <t>CUSTO EM %</t>
+  </si>
+  <si>
+    <t>Ganhos com Vendas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="[$-416]d\-mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Cambria"/>
@@ -351,11 +341,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="24"/>
       <color theme="3"/>
       <name val="Cambria"/>
@@ -367,21 +352,6 @@
       <name val="Cambria"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="3"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="3"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <scheme val="major"/>
     </font>
     <font>
       <b/>
@@ -429,13 +399,6 @@
       <name val="Cambria"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="4" tint="0.79998168889431442"/>
-      <name val="Cambria"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -610,8 +573,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,12 +623,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,7 +818,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -985,131 +975,233 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="4" fillId="3" borderId="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -1125,43 +1217,18 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1172,54 +1239,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="37" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="38" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="38" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="7" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="167" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="37" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="37" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="0" fillId="37" borderId="0" xfId="12" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="37" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="37" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1229,18 +1301,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="38" borderId="0" xfId="12" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="38" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="38" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="38" fillId="2" borderId="15" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="38" fillId="2" borderId="15" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="37" fillId="2" borderId="20" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="37" fillId="2" borderId="21" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="37" fillId="2" borderId="22" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="37" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="37" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="37" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="20% - Ênfase1" xfId="6" builtinId="30" customBuiltin="1"/>
@@ -1291,7 +1415,7 @@
     <cellStyle name="Total" xfId="5" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vírgula" xfId="8" builtinId="3" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="64">
     <dxf>
       <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <fill>
@@ -1310,6 +1434,36 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <fill>
         <patternFill patternType="solid">
@@ -1317,15 +1471,12 @@
           <bgColor rgb="FFA9A9A9"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1339,6 +1490,74 @@
           <color indexed="64"/>
         </left>
         <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
         <top/>
         <bottom/>
       </border>
@@ -1376,23 +1595,6 @@
           <bgColor rgb="FFA9A9A9"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1409,76 +1611,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
@@ -1547,10 +1679,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <fill>
         <patternFill patternType="solid">
@@ -1571,20 +1699,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
@@ -1602,6 +1717,31 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1620,18 +1760,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1781,6 +1909,10 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1858,6 +1990,10 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1897,6 +2033,10 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1935,157 +2075,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Cambria"/>
-        <family val="1"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Cambria"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color theme="1"/>
       </font>
       <fill>
@@ -2173,15 +2162,15 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Orçamento de casamento" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Orçamento de casamento" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="71"/>
-      <tableStyleElement type="headerRow" dxfId="70"/>
-      <tableStyleElement type="totalRow" dxfId="69"/>
-      <tableStyleElement type="lastColumn" dxfId="68"/>
+      <tableStyleElement type="wholeTable" dxfId="63"/>
+      <tableStyleElement type="headerRow" dxfId="62"/>
+      <tableStyleElement type="totalRow" dxfId="61"/>
+      <tableStyleElement type="lastColumn" dxfId="60"/>
     </tableStyle>
     <tableStyle name="Resumo do orçamento de casamento" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="wholeTable" dxfId="67"/>
-      <tableStyleElement type="headerRow" dxfId="66"/>
-      <tableStyleElement type="totalRow" dxfId="65"/>
+      <tableStyleElement type="wholeTable" dxfId="59"/>
+      <tableStyleElement type="headerRow" dxfId="58"/>
+      <tableStyleElement type="totalRow" dxfId="57"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2274,49 +2263,172 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="103"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="3"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" i="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>DEMONSTRATIVO DOS CUSTOS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
+      <c:pie3DChart>
         <c:varyColors val="1"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Orçamento de Empresa'!$E$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>REAL</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="42000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-680C-4E38-9CFD-DFCD549FCC39}"/>
+                <c16:uniqueId val="{00000008-197F-469F-BFC7-DFC22C57EE1E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2324,19 +2436,47 @@
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="55000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-680C-4E38-9CFD-DFCD549FCC39}"/>
+                <c16:uniqueId val="{0000000A-197F-469F-BFC7-DFC22C57EE1E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2344,19 +2484,47 @@
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="68000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-680C-4E38-9CFD-DFCD549FCC39}"/>
+                <c16:uniqueId val="{00000009-197F-469F-BFC7-DFC22C57EE1E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2364,162 +2532,136 @@
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-680C-4E38-9CFD-DFCD549FCC39}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="93000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-680C-4E38-9CFD-DFCD549FCC39}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="94000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-680C-4E38-9CFD-DFCD549FCC39}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="81000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-680C-4E38-9CFD-DFCD549FCC39}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="69000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-680C-4E38-9CFD-DFCD549FCC39}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="56000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-680C-4E38-9CFD-DFCD549FCC39}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:tint val="43000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-680C-4E38-9CFD-DFCD549FCC39}"/>
+                <c16:uniqueId val="{0000000B-197F-469F-BFC7-DFC22C57EE1E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-2.3691046047553312E-2"/>
-                  <c:y val="-9.7559855403255985E-17"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
+              <c:idx val="0"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
+              <c:showVal val="1"/>
               <c:showCatName val="1"/>
               <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
+              <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.13549832026875699"/>
+                      <c:h val="3.9823008849557522E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-680C-4E38-9CFD-DFCD549FCC39}"/>
+                  <c16:uniqueId val="{00000008-197F-469F-BFC7-DFC22C57EE1E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.10414333706606943"/>
+                      <c:h val="3.9823008849557522E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-197F-469F-BFC7-DFC22C57EE1E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.10862262038073908"/>
+                      <c:h val="3.9823008849557522E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-197F-469F-BFC7-DFC22C57EE1E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="7.0548712206047026E-2"/>
+                      <c:h val="7.0796460176991149E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-197F-469F-BFC7-DFC22C57EE1E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2531,11 +2673,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" anchor="ctr" anchorCtr="1">
+                <a:noAutofit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
@@ -2547,31 +2691,29 @@
                 <a:endParaRPr lang="pt-BR"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
-            <c:showCatName val="1"/>
+            <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Orçamento de Empresa'!$C$7:$C$10</c:f>
+              <c:f>'Gráfico-Custo'!$B$2:$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Funcionários</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Local Físico</c:v>
+                  <c:v>Escritóui</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Gastos Extras</c:v>
+                  <c:v>Veículos</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Marketing</c:v>
@@ -2581,42 +2723,41 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Orçamento de Empresa'!$E$7:$E$10</c:f>
+              <c:f>'Gráfico-Custo'!$B$3:$E$3</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
+                <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.66500000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>4.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.2215</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.99859999999999993</c:v>
+                  <c:v>6.5500000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000014-680C-4E38-9CFD-DFCD549FCC39}"/>
+              <c16:uniqueId val="{00000000-197F-469F-BFC7-DFC22C57EE1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="1"/>
+          <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="354"/>
-      </c:pieChart>
+      </c:pie3DChart>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2625,16 +2766,71 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:noFill/>
-    <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
       <a:noFill/>
-      <a:prstDash val="solid"/>
-      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2643,71 +2839,126 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="107">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="268">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="bg1"/>
-    </cs:fillRef>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -2716,90 +2967,220 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
-    <cs:lnRef idx="1">
+    <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:lineWidthScale>3</cs:lineWidthScale>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln cap="rnd">
-        <a:round/>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -2807,157 +3188,49 @@
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
-        <a:round/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1" mods="ignoreCSTransforms">
-      <cs:styleClr val="0">
-        <a:shade val="25000"/>
-      </cs:styleClr>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="50000"/>
-      </a:schemeClr>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2966,15 +3239,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <a:schemeClr val="bg1"/>
-    </cs:fillRef>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -2989,34 +3262,42 @@
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -3026,13 +3307,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1800" b="1" kern="1200"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
     </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -3040,8 +3331,10 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln cap="rnd">
-        <a:round/>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3050,46 +3343,43 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1" mods="ignoreCSTransforms">
-      <cs:styleClr val="0">
-        <a:tint val="25000"/>
-      </cs:styleClr>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="1">
-      <a:schemeClr val="tx1">
-        <a:tint val="75000"/>
-      </a:schemeClr>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
-        <a:round/>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -3104,25 +3394,28 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>312208</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>321128</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>10583</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="ResumoDoOrçamentoDeCasamento" descr="Gráfico de pizza que mostra a porcentagem de despesas de cada categoria">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3DD3F35-32A6-4769-A5E9-8C18A7B7F2BE}"/>
+            </a:ext>
+            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="0"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3150,26 +3443,6 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="ResumoDoOrçamento" displayName="ResumoDoOrçamento" ref="C6:F11" totalsRowCount="1" headerRowDxfId="64" totalsRowCellStyle="Total">
-  <autoFilter ref="C6:F10" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="CATEGORIA" totalsRowLabel="Total de despesas" totalsRowDxfId="63" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ESTIMADO" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="REAL" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="57">
-      <calculatedColumnFormula>ResumoDoOrçamento[[#This Row],[ESTIMADO]]-ResumoDoOrçamento[[#This Row],[REAL]]</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="Resumo do orçamento de casamento" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
-      <x14:table altTextSummary="A categoria, os valores Acima ou Abaixo e o custo real e estimado com bar são atualizados automaticamente nesta tabela"/>
-    </ext>
-  </extLst>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Roupas" displayName="Roupas" ref="B2:E14" totalsRowCount="1" headerRowDxfId="56" totalsRowDxfId="55">
   <autoFilter ref="B2:E13" xr:uid="{00000000-0009-0000-0100-00000C000000}">
     <filterColumn colId="0" hiddenButton="1"/>
@@ -3178,10 +3451,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Custo¹" dataDxfId="54" totalsRowDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ESTIMADO ANUAL" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ESTIMATIVA EM %" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="15" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="14">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Custo¹" dataDxfId="54" totalsRowDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ESTIMADO ANUAL" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ESTIMATIVA EM %" dataDxfId="52" totalsRowDxfId="13" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="12">
       <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C3-'Funcionários-Local-Extras-Marke'!$D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3194,8 +3467,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Festa" displayName="Festa" ref="B19:E27" totalsRowCount="1" headerRowDxfId="51" totalsRowDxfId="50">
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Festa" displayName="Festa" ref="B19:E27" totalsRowCount="1" headerRowDxfId="50" totalsRowDxfId="49">
   <autoFilter ref="B19:E26" xr:uid="{00000000-0009-0000-0100-00000D000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3203,10 +3476,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Custo" dataDxfId="49" totalsRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ESTIMADO ANUAL" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ESTIMATIVA EM %" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="4" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Custo" dataDxfId="48" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ESTIMADO ANUAL" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ESTIMATIVA EM %" dataDxfId="46" totalsRowDxfId="9" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="8">
       <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C20-'Funcionários-Local-Extras-Marke'!$D20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3219,8 +3492,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Música" displayName="Música" ref="B31:E35" totalsRowCount="1" headerRowDxfId="46" totalsRowDxfId="45">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Música" displayName="Música" ref="B31:E35" totalsRowCount="1" headerRowDxfId="44" totalsRowDxfId="43">
   <autoFilter ref="B31:E34" xr:uid="{00000000-0009-0000-0100-00000E000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3228,10 +3501,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Gastos Extras" dataDxfId="44" totalsRowDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="ESTIMADO ANUAL" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ESTIMATIVA EM %" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Gastos Extras" dataDxfId="42" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="ESTIMADO ANUAL" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ESTIMATIVA EM %" dataDxfId="40" totalsRowDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="4">
       <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C32-'Funcionários-Local-Extras-Marke'!$D32</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3244,13 +3517,13 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Impressão" displayName="Impressão" ref="B38:E46" totalsRowCount="1" headerRowDxfId="40" totalsRowDxfId="39">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Impressão" displayName="Impressão" ref="B38:E46" totalsRowCount="1" headerRowDxfId="38" totalsRowDxfId="37">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Marketing" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="ESTIMADO" totalsRowFunction="sum" totalsRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ESTIMATIVA EM %" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="9" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" totalsRowDxfId="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Marketing" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="ESTIMADO" totalsRowFunction="sum" totalsRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ESTIMATIVA EM %" dataDxfId="36" totalsRowDxfId="1" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" totalsRowDxfId="0">
       <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C39-'Funcionários-Local-Extras-Marke'!$D39</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3263,16 +3536,16 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{542CD9DA-BE67-4476-B3ED-94AAA93D6D50}" name="Música2" displayName="Música2" ref="B50:E53" totalsRowCount="1" headerRowDxfId="38" totalsRowDxfId="37">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{542CD9DA-BE67-4476-B3ED-94AAA93D6D50}" name="Música2" displayName="Música2" ref="B50:E53" totalsRowCount="1" headerRowDxfId="35" totalsRowDxfId="34">
   <autoFilter ref="B50:E52" xr:uid="{542CD9DA-BE67-4476-B3ED-94AAA93D6D50}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F828AF69-2C3D-4F7C-BAEB-AE441072E02C}" name="CATEGORIA" totalsRowLabel="Total de Ganho" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{49218F16-1EAB-4FE3-85CD-202EE002DE31}" name="ESTIMADO" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="33">
+    <tableColumn id="1" xr3:uid="{F828AF69-2C3D-4F7C-BAEB-AE441072E02C}" name="CATEGORIA" totalsRowLabel="Total de Ganho" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{49218F16-1EAB-4FE3-85CD-202EE002DE31}" name="ESTIMADO" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
       <totalsRowFormula>C52</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B924C15A-4FC9-4943-9D4C-3A0A2C03CA14}" name="REAL" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{6A452F63-ECF6-47C3-9821-65724FEBC5DB}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="29">
+    <tableColumn id="3" xr3:uid="{B924C15A-4FC9-4943-9D4C-3A0A2C03CA14}" name="REAL" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{6A452F63-ECF6-47C3-9821-65724FEBC5DB}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26">
       <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C51-'Funcionários-Local-Extras-Marke'!$D51</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3285,17 +3558,17 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4266C49C-9654-40DC-9A5F-25C348E80149}" name="Música23" displayName="Música23" ref="B56:E58" totalsRowCount="1" headerRowDxfId="28" totalsRowDxfId="27">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4266C49C-9654-40DC-9A5F-25C348E80149}" name="Música23" displayName="Música23" ref="B56:E58" totalsRowCount="1" headerRowDxfId="25" totalsRowDxfId="24">
   <autoFilter ref="B56:E57" xr:uid="{4266C49C-9654-40DC-9A5F-25C348E80149}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5D65B7CF-5AD3-4268-8BC1-C80E53FAD300}" name="CATEGORIA" totalsRowLabel="Total de Ganho" dataDxfId="26" totalsRowDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{71F99B25-C26E-47AB-9E9C-02750042D3A6}" name="ESTIMADO" totalsRowFunction="custom" dataDxfId="25" totalsRowDxfId="21">
+    <tableColumn id="1" xr3:uid="{5D65B7CF-5AD3-4268-8BC1-C80E53FAD300}" name="CATEGORIA" totalsRowLabel="Total de Ganho" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{71F99B25-C26E-47AB-9E9C-02750042D3A6}" name="ESTIMADO" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>Música2[[#Totals],[ESTIMADO]]-C47</calculatedColumnFormula>
       <totalsRowFormula array="1">Música23[ESTIMADO]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4D9DCACE-DC44-425B-B8B8-AC07284B5FAE}" name="REAL" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{AA5C067B-5ADD-4FAD-950B-40696FBD4EB4}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="19">
+    <tableColumn id="3" xr3:uid="{4D9DCACE-DC44-425B-B8B8-AC07284B5FAE}" name="REAL" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{AA5C067B-5ADD-4FAD-950B-40696FBD4EB4}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C57-'Funcionários-Local-Extras-Marke'!$D57</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3579,486 +3852,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <tabColor theme="4"/>
-    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G38"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="4.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="8" width="4.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="23">
-        <f ca="1">TODAY()+365</f>
-        <v>45020</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="75" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="46">
-        <f>Total_de_Roupas_est</f>
-        <v>1218000</v>
-      </c>
-      <c r="E7" s="46">
-        <f>Total_de_Roupas_real</f>
-        <v>1</v>
-      </c>
-      <c r="F7" s="42">
-        <f>ResumoDoOrçamento[[#This Row],[ESTIMADO]]-ResumoDoOrçamento[[#This Row],[REAL]]</f>
-        <v>1217999</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="3"/>
-      <c r="C8" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="46">
-        <f>Total_da_Festa_est</f>
-        <v>89900</v>
-      </c>
-      <c r="E8" s="46">
-        <f>Total_da_Festa_real</f>
-        <v>1</v>
-      </c>
-      <c r="F8" s="42">
-        <f>ResumoDoOrçamento[[#This Row],[ESTIMADO]]-ResumoDoOrçamento[[#This Row],[REAL]]</f>
-        <v>89899</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="3"/>
-      <c r="C9" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="46">
-        <f>Total_de_Música_entretenimento_est</f>
-        <v>402500</v>
-      </c>
-      <c r="E9" s="46">
-        <f>Total_de_Música_entretenimento_real</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="42">
-        <f>ResumoDoOrçamento[[#This Row],[ESTIMADO]]-ResumoDoOrçamento[[#This Row],[REAL]]</f>
-        <v>402500</v>
-      </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="3"/>
-      <c r="C10" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="46">
-        <f>Total_de_Impressão_gráfica_est</f>
-        <v>120800</v>
-      </c>
-      <c r="E10" s="46">
-        <f>Total_de_Impressão_gráfica_real</f>
-        <v>0.99859999999999993</v>
-      </c>
-      <c r="F10" s="42">
-        <f>ResumoDoOrçamento[[#This Row],[ESTIMADO]]-ResumoDoOrçamento[[#This Row],[REAL]]</f>
-        <v>120799.00139999999</v>
-      </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="3"/>
-      <c r="C11" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="47">
-        <f>SUBTOTAL(109,ResumoDoOrçamento[ESTIMADO])</f>
-        <v>1831200</v>
-      </c>
-      <c r="E11" s="48">
-        <f>SUBTOTAL(109,ResumoDoOrçamento[REAL])</f>
-        <v>2.9985999999999997</v>
-      </c>
-      <c r="F11" s="44">
-        <f>SUBTOTAL(109,ResumoDoOrçamento[ACIMA/ABAIXO])</f>
-        <v>1831197.0014</v>
-      </c>
-      <c r="G11" s="20"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="76" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="3"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="3"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="3"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="3"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="3"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="3"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="3"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="21"/>
-    </row>
-    <row r="30" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="3"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="3"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="3"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="3"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="3"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="3"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="3"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="3"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C3:F5"/>
-    <mergeCell ref="C13:F37"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="F7:G10">
-    <cfRule type="dataBar" priority="159">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="4" tint="0.39997558519241921"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E9299B05-310B-472D-BE31-5920E21F680D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter differentFirst="1" alignWithMargins="0">
-    <oddFooter>Page &amp;P of &amp;N</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E9299B05-310B-472D-BE31-5920E21F680D}">
-            <x14:dataBar minLength="0" maxLength="100" axisPosition="middle">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor theme="0" tint="-0.249977111117893"/>
-              <x14:axisColor theme="7" tint="0.249977111117893"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F7:G10</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="4.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -4068,827 +3876,822 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="67" t="s">
-        <v>9</v>
+      <c r="A2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="30">
+      <c r="B3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="14">
         <v>120000</v>
       </c>
-      <c r="D3" s="90">
+      <c r="D3" s="50">
         <v>9.8500000000000004E-2</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C3-'Funcionários-Local-Extras-Marke'!$D3</f>
         <v>119999.90150000001</v>
       </c>
-      <c r="G3" s="89">
-        <v>0.69</v>
+      <c r="G3" s="52">
+        <v>0.66500000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="30">
+      <c r="B4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="14">
         <v>120000</v>
       </c>
-      <c r="D4" s="90">
+      <c r="D4" s="50">
         <v>9.8500000000000004E-2</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C4-'Funcionários-Local-Extras-Marke'!$D4</f>
         <v>119999.90150000001</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="30">
+      <c r="B5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="14">
         <v>120000</v>
       </c>
-      <c r="D5" s="90">
+      <c r="D5" s="50">
         <v>9.8500000000000004E-2</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C5-'Funcionários-Local-Extras-Marke'!$D5</f>
         <v>119999.90150000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="30">
+      <c r="B6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="14">
         <v>120000</v>
       </c>
-      <c r="D6" s="90">
+      <c r="D6" s="50">
         <v>9.8500000000000004E-2</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C6-'Funcionários-Local-Extras-Marke'!$D6</f>
         <v>119999.90150000001</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="30">
+      <c r="B7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="14">
         <v>120000</v>
       </c>
-      <c r="D7" s="90">
+      <c r="D7" s="50">
         <v>9.8500000000000004E-2</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C7-'Funcionários-Local-Extras-Marke'!$D7</f>
         <v>119999.90150000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="30">
+      <c r="B8" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="14">
         <v>150000</v>
       </c>
-      <c r="D8" s="90">
+      <c r="D8" s="50">
         <v>0.123</v>
       </c>
-      <c r="E8" s="31">
+      <c r="E8" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C8-'Funcionários-Local-Extras-Marke'!$D8</f>
         <v>149999.87700000001</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="30">
+      <c r="B9" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="14">
         <v>108000</v>
       </c>
-      <c r="D9" s="90">
+      <c r="D9" s="50">
         <v>8.8700000000000001E-2</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C9-'Funcionários-Local-Extras-Marke'!$D9</f>
         <v>107999.91130000001</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="30">
+      <c r="B10" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="14">
         <v>108000</v>
       </c>
-      <c r="D10" s="90">
+      <c r="D10" s="50">
         <v>8.8700000000000001E-2</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C10-'Funcionários-Local-Extras-Marke'!$D10</f>
         <v>107999.91130000001</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="30">
+      <c r="B11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="14">
         <v>108000</v>
       </c>
-      <c r="D11" s="90">
+      <c r="D11" s="50">
         <v>8.8700000000000001E-2</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C11-'Funcionários-Local-Extras-Marke'!$D11</f>
         <v>107999.91130000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="30">
+      <c r="A12" s="6"/>
+      <c r="B12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="14">
         <v>72000</v>
       </c>
-      <c r="D12" s="90">
+      <c r="D12" s="50">
         <v>5.9200000000000003E-2</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C12-'Funcionários-Local-Extras-Marke'!$D12</f>
         <v>71999.940799999997</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="30">
+      <c r="A13" s="6"/>
+      <c r="B13" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="14">
         <v>72000</v>
       </c>
-      <c r="D13" s="90">
+      <c r="D13" s="50">
         <v>5.9200000000000003E-2</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C13-'Funcionários-Local-Extras-Marke'!$D13</f>
         <v>71999.940799999997</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="63">
+      <c r="A14" s="5"/>
+      <c r="B14" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="38">
         <f>SUBTOTAL(109,Roupas[ESTIMADO ANUAL])</f>
         <v>1218000</v>
       </c>
-      <c r="D14" s="91">
-        <f>SUBTOTAL(109,Roupas[ESTIMATIVA EM %])</f>
-        <v>1</v>
-      </c>
-      <c r="E14" s="64">
+      <c r="D14" s="51"/>
+      <c r="E14" s="39">
         <f>SUBTOTAL(109,Roupas[ACIMA/ABAIXO])</f>
         <v>1217999</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="82"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="62"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="79"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="E18" s="28"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="73" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="30">
+      <c r="A16" s="5"/>
+      <c r="B16" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="14">
         <v>3000</v>
       </c>
-      <c r="D20" s="90">
+      <c r="D20" s="50">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C20-'Funcionários-Local-Extras-Marke'!$D20</f>
         <v>2999.9659999999999</v>
       </c>
-      <c r="G20" s="92">
-        <v>5.1499999999999997E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="30">
+      <c r="G20" s="52">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="14">
         <v>1500</v>
       </c>
-      <c r="D21" s="90">
+      <c r="D21" s="50">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C21-'Funcionários-Local-Extras-Marke'!$D21</f>
         <v>1499.9825000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="30">
+    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="14">
         <v>2400</v>
       </c>
-      <c r="D22" s="90">
+      <c r="D22" s="50">
         <v>2.75E-2</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C22-'Funcionários-Local-Extras-Marke'!$D22</f>
         <v>2399.9724999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="30">
+    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="14">
         <v>500</v>
       </c>
-      <c r="D23" s="90">
+      <c r="D23" s="50">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C23-'Funcionários-Local-Extras-Marke'!$D23</f>
         <v>499.99950000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="30">
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="14">
         <v>60000</v>
       </c>
-      <c r="D24" s="94">
+      <c r="D24" s="54">
         <v>0.67</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C24-'Funcionários-Local-Extras-Marke'!$D24</f>
         <v>59999.33</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="30">
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="14">
         <v>22000</v>
       </c>
-      <c r="D25" s="90">
+      <c r="D25" s="50">
         <v>0.25</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C25-'Funcionários-Local-Extras-Marke'!$D25</f>
         <v>21999.75</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="30">
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="14">
         <v>500</v>
       </c>
-      <c r="D26" s="90">
+      <c r="D26" s="50">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E26" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C26-'Funcionários-Local-Extras-Marke'!$D26</f>
         <v>499.99950000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="63">
+    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+      <c r="B27" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="38">
         <f>SUBTOTAL(109,Festa[ESTIMADO ANUAL])</f>
         <v>89900</v>
       </c>
-      <c r="D27" s="95">
-        <f>SUBTOTAL(109,Festa[ESTIMATIVA EM %])</f>
-        <v>1</v>
-      </c>
-      <c r="E27" s="64">
+      <c r="D27" s="55"/>
+      <c r="E27" s="39">
         <f>SUBTOTAL(109,Festa[ACIMA/ABAIXO])</f>
         <v>89899</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="79"/>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="83"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="84"/>
-      <c r="E29" s="85"/>
-    </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="34"/>
-      <c r="E30" s="28"/>
-    </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="73" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
-      <c r="B32" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="30">
+    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59"/>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="63"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="65"/>
+    </row>
+    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="14">
         <v>60000</v>
       </c>
-      <c r="D32" s="30">
+      <c r="D32" s="14">
         <v>0</v>
       </c>
-      <c r="E32" s="31">
+      <c r="E32" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C32-'Funcionários-Local-Extras-Marke'!$D32</f>
         <v>60000</v>
       </c>
-      <c r="G32" s="92">
+      <c r="G32" s="52">
+        <v>0.2215</v>
+      </c>
+      <c r="K32" s="52">
         <v>0.17499999999999999</v>
       </c>
-      <c r="H32" s="51">
+      <c r="L32" s="26">
         <v>2000000</v>
       </c>
-      <c r="I32" s="96">
-        <f>H32*G32</f>
+      <c r="M32" s="56">
+        <f>L32*K32</f>
         <v>350000</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="50">
+    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="25">
         <f>625000/2</f>
         <v>312500</v>
       </c>
-      <c r="D33" s="30">
+      <c r="D33" s="14">
         <v>0</v>
       </c>
-      <c r="E33" s="31">
+      <c r="E33" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C33-'Funcionários-Local-Extras-Marke'!$D33</f>
         <v>312500</v>
       </c>
-      <c r="G33" s="51">
+      <c r="K33" s="26">
         <v>130000</v>
       </c>
-      <c r="H33" s="51">
+      <c r="L33" s="26">
         <v>45000</v>
       </c>
-      <c r="I33" s="51">
+      <c r="M33" s="26">
         <v>440000</v>
       </c>
-      <c r="J33" s="52">
+      <c r="N33" s="27">
         <v>10000</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="50">
+    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="25">
         <v>30000</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="14">
         <v>0</v>
       </c>
-      <c r="E34" s="31">
+      <c r="E34" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C34-'Funcionários-Local-Extras-Marke'!$D34</f>
         <v>30000</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="63">
+    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="38">
         <f>SUBTOTAL(109,Música[ESTIMADO ANUAL])</f>
         <v>402500</v>
       </c>
-      <c r="D35" s="63">
-        <f>SUBTOTAL(109,Música[ESTIMATIVA EM %])</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="64">
+      <c r="D35" s="38"/>
+      <c r="E35" s="39">
         <f>SUBTOTAL(109,Música[ACIMA/ABAIXO])</f>
         <v>402500</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="86"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="88"/>
-    </row>
-    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="34"/>
-      <c r="E37" s="28"/>
-    </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="72" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="73" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="50">
+    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="66"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="68"/>
+    </row>
+    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="25">
         <v>5000</v>
       </c>
-      <c r="D39" s="90">
+      <c r="D39" s="50">
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="E39" s="31">
+      <c r="E39" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C39-'Funcionários-Local-Extras-Marke'!$D39</f>
         <v>4999.9584999999997</v>
       </c>
-      <c r="G39" s="92">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="30">
+      <c r="G39" s="52">
+        <v>6.5500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="14">
         <v>5000</v>
       </c>
-      <c r="D40" s="90">
+      <c r="D40" s="50">
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="E40" s="31">
+      <c r="E40" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C40-'Funcionários-Local-Extras-Marke'!$D40</f>
         <v>4999.9584999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C41" s="30">
+    <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="14">
         <v>5000</v>
       </c>
-      <c r="D41" s="90">
+      <c r="D41" s="50">
         <v>4.1500000000000002E-2</v>
       </c>
-      <c r="E41" s="31">
+      <c r="E41" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C41-'Funcionários-Local-Extras-Marke'!$D41</f>
         <v>4999.9584999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C42" s="30">
+    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="14">
         <v>800</v>
       </c>
-      <c r="D42" s="90">
+      <c r="D42" s="50">
         <v>1E-4</v>
       </c>
-      <c r="E42" s="31">
+      <c r="E42" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C42-'Funcionários-Local-Extras-Marke'!$D42</f>
         <v>799.99990000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="50">
+    <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="25">
         <v>30000</v>
       </c>
-      <c r="D43" s="90">
+      <c r="D43" s="50">
         <v>0.25</v>
       </c>
-      <c r="E43" s="31">
+      <c r="E43" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C43-'Funcionários-Local-Extras-Marke'!$D43</f>
         <v>29999.75</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
-      <c r="B44" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="50">
+    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
+      <c r="B44" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="25">
         <v>25000</v>
       </c>
-      <c r="D44" s="90">
+      <c r="D44" s="50">
         <v>0.21</v>
       </c>
-      <c r="E44" s="31">
+      <c r="E44" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C44-'Funcionários-Local-Extras-Marke'!$D44</f>
         <v>24999.79</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="30">
+    <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="14">
         <v>50000</v>
       </c>
-      <c r="D45" s="90">
+      <c r="D45" s="50">
         <v>0.41399999999999998</v>
       </c>
-      <c r="E45" s="31">
+      <c r="E45" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C45-'Funcionários-Local-Extras-Marke'!$D45</f>
         <v>49999.586000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="68">
+    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="43">
         <f>SUBTOTAL(109,Impressão[ESTIMADO])</f>
         <v>120800</v>
       </c>
-      <c r="D46" s="93">
-        <f>SUBTOTAL(109,Impressão[ESTIMATIVA EM %])</f>
-        <v>0.99859999999999993</v>
-      </c>
-      <c r="E46" s="64">
+      <c r="D46" s="53"/>
+      <c r="E46" s="39">
         <f>SUBTOTAL(109,Impressão[ACIMA/ABAIXO])</f>
         <v>120799.00140000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" s="60">
+      <c r="G46" s="69">
+        <f>SUM(G3+G20+G32+G39)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="35">
         <f>Impressão[[#Totals],[ESTIMADO]]+Música[[#Totals],[ESTIMADO ANUAL]]+Festa[[#Totals],[ESTIMADO ANUAL]]+Roupas[[#Totals],[ESTIMADO ANUAL]]</f>
         <v>1831200</v>
       </c>
-      <c r="D47" s="35"/>
-      <c r="E47" s="36"/>
-    </row>
-    <row r="48" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="20"/>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="55"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="57"/>
+      <c r="B49" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="30"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="32"/>
     </row>
     <row r="50" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="C50" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" s="73" t="s">
-        <v>9</v>
+      <c r="B50" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="48" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" s="58">
+      <c r="B51" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="33">
         <v>30000000</v>
       </c>
-      <c r="D51" s="58">
+      <c r="D51" s="33">
         <v>0</v>
       </c>
-      <c r="E51" s="31">
+      <c r="E51" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C51-'Funcionários-Local-Extras-Marke'!$D51</f>
         <v>30000000</v>
       </c>
     </row>
     <row r="52" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" s="61">
+      <c r="B52" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="36">
         <f>C51*8%</f>
         <v>2400000</v>
       </c>
-      <c r="D52" s="58">
+      <c r="D52" s="33">
         <v>0</v>
       </c>
-      <c r="E52" s="31">
+      <c r="E52" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C52-'Funcionários-Local-Extras-Marke'!$D52</f>
         <v>2400000</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="C53" s="70">
+      <c r="B53" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="45">
         <f>C52</f>
         <v>2400000</v>
       </c>
-      <c r="D53" s="70">
+      <c r="D53" s="45">
         <f>SUBTOTAL(109,Música2[REAL])</f>
         <v>0</v>
       </c>
-      <c r="E53" s="71">
+      <c r="E53" s="46">
         <f>SUBTOTAL(109,Música2[ACIMA/ABAIXO])</f>
         <v>32400000</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="32"/>
+      <c r="C54" s="16"/>
     </row>
     <row r="55" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" s="55"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="57"/>
+      <c r="B55" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="30"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="32"/>
     </row>
     <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" s="73" t="s">
-        <v>9</v>
+      <c r="B56" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="48" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" s="58">
+      <c r="B57" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="33">
         <f>Música2[[#Totals],[ESTIMADO]]-C47</f>
         <v>568800</v>
       </c>
-      <c r="D57" s="58">
+      <c r="D57" s="33">
         <v>0</v>
       </c>
-      <c r="E57" s="31">
+      <c r="E57" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C57-'Funcionários-Local-Extras-Marke'!$D57</f>
         <v>568800</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="69" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="70" cm="1">
+      <c r="B58" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="45" cm="1">
         <f t="array" ref="C58">Música23[ESTIMADO]</f>
         <v>568800</v>
       </c>
-      <c r="D58" s="70">
+      <c r="D58" s="45">
         <f>SUBTOTAL(109,Música23[REAL])</f>
         <v>0</v>
       </c>
-      <c r="E58" s="71">
+      <c r="E58" s="46">
         <f>SUBTOTAL(109,Música23[ACIMA/ABAIXO])</f>
         <v>568800</v>
       </c>
@@ -4982,13 +4785,285 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E16DBF3-7F69-4F61-9D3E-EFC2AAD82ED6}">
+  <dimension ref="B2:M44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="70"/>
+    <col min="2" max="2" width="21.85546875" style="70" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="70" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="70" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="70" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="70"/>
+    <col min="7" max="7" width="12.28515625" style="70" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="70"/>
+    <col min="10" max="10" width="4.42578125" style="70" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="70"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="72">
+        <f>'Funcionários-Local-Extras-Marke'!G3</f>
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="C3" s="72">
+        <f>'Funcionários-Local-Extras-Marke'!G20</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="D3" s="72">
+        <f>'Funcionários-Local-Extras-Marke'!G32</f>
+        <v>0.2215</v>
+      </c>
+      <c r="E3" s="72">
+        <f>'Funcionários-Local-Extras-Marke'!G39</f>
+        <v>6.5500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="75"/>
+    </row>
+    <row r="36" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="H36" s="95"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="96"/>
+    </row>
+    <row r="37" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B37" s="97" t="str">
+        <f>'Funcionários-Local-Extras-Marke'!B1</f>
+        <v>Funcionários</v>
+      </c>
+      <c r="C37" s="77"/>
+      <c r="D37" s="100">
+        <f>Roupas[[#Totals],[ESTIMADO ANUAL]]</f>
+        <v>1218000</v>
+      </c>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="103">
+        <f>'Funcionários-Local-Extras-Marke'!G3</f>
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="106"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="88"/>
+      <c r="M37" s="89"/>
+    </row>
+    <row r="38" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B38" s="98" t="str">
+        <f>'Funcionários-Local-Extras-Marke'!B18</f>
+        <v>Local Físico*</v>
+      </c>
+      <c r="C38" s="77"/>
+      <c r="D38" s="101">
+        <f>Festa[[#Totals],[ESTIMADO ANUAL]]</f>
+        <v>89900</v>
+      </c>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="104">
+        <f>'Funcionários-Local-Extras-Marke'!G20</f>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="107"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="79"/>
+    </row>
+    <row r="39" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B39" s="98" t="str">
+        <f>'Funcionários-Local-Extras-Marke'!B30</f>
+        <v>Gastos com Veículos</v>
+      </c>
+      <c r="C39" s="77"/>
+      <c r="D39" s="101">
+        <f>Música[[#Totals],[ESTIMADO ANUAL]]</f>
+        <v>402500</v>
+      </c>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="104">
+        <f>'Funcionários-Local-Extras-Marke'!G32</f>
+        <v>0.2215</v>
+      </c>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="107"/>
+      <c r="K39" s="78"/>
+      <c r="L39" s="78"/>
+      <c r="M39" s="79"/>
+    </row>
+    <row r="40" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="99" t="str">
+        <f>'Funcionários-Local-Extras-Marke'!B37</f>
+        <v>Marketing</v>
+      </c>
+      <c r="C40" s="77"/>
+      <c r="D40" s="102">
+        <f>Impressão[[#Totals],[ESTIMADO]]</f>
+        <v>120800</v>
+      </c>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="105">
+        <f>'Funcionários-Local-Extras-Marke'!G39</f>
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="108"/>
+      <c r="K40" s="91"/>
+      <c r="L40" s="91"/>
+      <c r="M40" s="92"/>
+    </row>
+    <row r="41" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="81"/>
+      <c r="D41" s="82">
+        <f>SUM(D37:D40)</f>
+        <v>1831200</v>
+      </c>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="83">
+        <f>SUM(G37:G40)</f>
+        <v>1</v>
+      </c>
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="84"/>
+      <c r="L41" s="84"/>
+      <c r="M41" s="85"/>
+    </row>
+    <row r="42" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="76"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="77"/>
+      <c r="K42" s="77"/>
+      <c r="L42" s="77"/>
+      <c r="M42" s="86"/>
+    </row>
+    <row r="43" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="87"/>
+      <c r="D43" s="100">
+        <f>'Funcionários-Local-Extras-Marke'!C52</f>
+        <v>2400000</v>
+      </c>
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="106"/>
+      <c r="K43" s="88"/>
+      <c r="L43" s="88"/>
+      <c r="M43" s="89"/>
+    </row>
+    <row r="44" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="99" t="str">
+        <f>'Funcionários-Local-Extras-Marke'!B55</f>
+        <v>PPR</v>
+      </c>
+      <c r="C44" s="90"/>
+      <c r="D44" s="102">
+        <f>D43-D41</f>
+        <v>568800</v>
+      </c>
+      <c r="E44" s="90"/>
+      <c r="F44" s="90"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="90"/>
+      <c r="I44" s="90"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="91"/>
+      <c r="L44" s="91"/>
+      <c r="M44" s="92"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="B35:M35"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="J43:M43"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5162,15 +5237,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{953F9F67-1E60-41F1-8D0A-2C9144BB5791}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C15B775D-9D4C-4008-98F9-E820ECDFE507}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5194,10 +5273,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C15B775D-9D4C-4008-98F9-E820ECDFE507}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{953F9F67-1E60-41F1-8D0A-2C9144BB5791}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Custos para Edição.xlsx
+++ b/Custos para Edição.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cássio\Documents\SENAC\PROJETO_INTTEGRADOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385B5FAC-21D8-4397-9804-E223CF64AF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD7C884-A179-44A6-A5A7-D9BE52E0CC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -291,9 +291,6 @@
     <t>ESTIMATIVA EM %</t>
   </si>
   <si>
-    <t>Escritóui</t>
-  </si>
-  <si>
     <t>Veículos</t>
   </si>
   <si>
@@ -313,6 +310,9 @@
   </si>
   <si>
     <t>Ganhos com Vendas</t>
+  </si>
+  <si>
+    <t>Escritório</t>
   </si>
 </sst>
 </file>
@@ -324,9 +324,9 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Cambria"/>
@@ -602,6 +602,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Cambria"/>
       <family val="1"/>
       <scheme val="minor"/>
@@ -1175,7 +1182,7 @@
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1210,32 +1217,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1247,17 +1252,17 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1265,10 +1270,10 @@
     <xf numFmtId="0" fontId="33" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="37" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="37" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="37" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="37" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="33" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1276,13 +1281,38 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="37" borderId="0" xfId="12" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="37" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="37" borderId="0" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="38" fillId="2" borderId="15" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="38" fillId="2" borderId="15" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="37" fillId="2" borderId="20" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="37" fillId="2" borderId="21" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="37" fillId="2" borderId="22" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="37" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="37" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="37" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1301,10 +1331,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1314,57 +1349,32 @@
     <xf numFmtId="0" fontId="34" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="38" fillId="2" borderId="15" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="38" fillId="2" borderId="15" xfId="12" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="37" fillId="2" borderId="20" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="37" fillId="2" borderId="21" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="37" fillId="2" borderId="22" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="37" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="37" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="37" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="20% - Ênfase1" xfId="6" builtinId="30" customBuiltin="1"/>
@@ -1417,7 +1427,237 @@
   </cellStyles>
   <dxfs count="64">
     <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF305353"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF305353"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1464,7 +1704,11 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1495,7 +1739,36 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF305353"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1512,7 +1785,11 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1521,13 +1798,21 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFA9A9A9"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1546,7 +1831,39 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF305353"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1561,6 +1878,10 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1588,13 +1909,21 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFA9A9A9"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1613,7 +1942,38 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFA9A9A9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+        <name val="Cambria"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF305353"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1628,6 +1988,10 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1654,13 +2018,21 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFA9A9A9"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1677,368 +2049,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <name val="Cambria"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF305353"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <name val="Cambria"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF305353"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <name val="Cambria"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF305353"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <name val="Cambria"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF305353"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFA9A9A9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <name val="Cambria"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF305353"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2710,7 +2720,7 @@
                   <c:v>Funcionários</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Escritóui</c:v>
+                  <c:v>Escritório</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Veículos</c:v>
@@ -3451,10 +3461,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Custo¹" dataDxfId="54" totalsRowDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ESTIMADO ANUAL" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ESTIMATIVA EM %" dataDxfId="52" totalsRowDxfId="13" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="12">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Custo¹" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ESTIMADO ANUAL" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="ESTIMATIVA EM %" dataDxfId="50" totalsRowDxfId="49" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="47">
       <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C3-'Funcionários-Local-Extras-Marke'!$D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3468,7 +3478,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Festa" displayName="Festa" ref="B19:E27" totalsRowCount="1" headerRowDxfId="50" totalsRowDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Festa" displayName="Festa" ref="B19:E27" totalsRowCount="1" headerRowDxfId="46" totalsRowDxfId="45">
   <autoFilter ref="B19:E26" xr:uid="{00000000-0009-0000-0100-00000D000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3476,10 +3486,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Custo" dataDxfId="48" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ESTIMADO ANUAL" totalsRowFunction="sum" dataDxfId="47" totalsRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ESTIMATIVA EM %" dataDxfId="46" totalsRowDxfId="9" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Custo" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ESTIMADO ANUAL" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="ESTIMATIVA EM %" dataDxfId="40" totalsRowDxfId="39" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="37">
       <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C20-'Funcionários-Local-Extras-Marke'!$D20</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3493,7 +3503,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Música" displayName="Música" ref="B31:E35" totalsRowCount="1" headerRowDxfId="44" totalsRowDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Música" displayName="Música" ref="B31:E35" totalsRowCount="1" headerRowDxfId="36" totalsRowDxfId="35">
   <autoFilter ref="B31:E34" xr:uid="{00000000-0009-0000-0100-00000E000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3501,10 +3511,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Gastos Extras" dataDxfId="42" totalsRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="ESTIMADO ANUAL" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ESTIMATIVA EM %" dataDxfId="40" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Gastos Extras" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="ESTIMADO ANUAL" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="ESTIMATIVA EM %" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="27">
       <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C32-'Funcionários-Local-Extras-Marke'!$D32</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3518,12 +3528,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Impressão" displayName="Impressão" ref="B38:E46" totalsRowCount="1" headerRowDxfId="38" totalsRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Impressão" displayName="Impressão" ref="B38:E46" totalsRowCount="1" headerRowDxfId="26" totalsRowDxfId="25">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Marketing" totalsRowDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="ESTIMADO" totalsRowFunction="sum" totalsRowDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ESTIMATIVA EM %" dataDxfId="36" totalsRowDxfId="1" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" totalsRowDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="CATEGORIA" totalsRowLabel="Total de Marketing" totalsRowDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="ESTIMADO" totalsRowFunction="sum" totalsRowDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ESTIMATIVA EM %" dataDxfId="22" totalsRowDxfId="21" dataCellStyle="Porcentagem" totalsRowCellStyle="Porcentagem"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="ACIMA/ABAIXO" totalsRowFunction="sum" totalsRowDxfId="20">
       <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C39-'Funcionários-Local-Extras-Marke'!$D39</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3537,15 +3547,15 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{542CD9DA-BE67-4476-B3ED-94AAA93D6D50}" name="Música2" displayName="Música2" ref="B50:E53" totalsRowCount="1" headerRowDxfId="35" totalsRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{542CD9DA-BE67-4476-B3ED-94AAA93D6D50}" name="Música2" displayName="Música2" ref="B50:E53" totalsRowCount="1" headerRowDxfId="19" totalsRowDxfId="18">
   <autoFilter ref="B50:E52" xr:uid="{542CD9DA-BE67-4476-B3ED-94AAA93D6D50}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F828AF69-2C3D-4F7C-BAEB-AE441072E02C}" name="CATEGORIA" totalsRowLabel="Total de Ganho" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{49218F16-1EAB-4FE3-85CD-202EE002DE31}" name="ESTIMADO" totalsRowFunction="custom" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="1" xr3:uid="{F828AF69-2C3D-4F7C-BAEB-AE441072E02C}" name="CATEGORIA" totalsRowLabel="Total de Ganho" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{49218F16-1EAB-4FE3-85CD-202EE002DE31}" name="ESTIMADO" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
       <totalsRowFormula>C52</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{B924C15A-4FC9-4943-9D4C-3A0A2C03CA14}" name="REAL" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{6A452F63-ECF6-47C3-9821-65724FEBC5DB}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="3" xr3:uid="{B924C15A-4FC9-4943-9D4C-3A0A2C03CA14}" name="REAL" totalsRowFunction="sum" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{6A452F63-ECF6-47C3-9821-65724FEBC5DB}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C51-'Funcionários-Local-Extras-Marke'!$D51</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3559,16 +3569,16 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4266C49C-9654-40DC-9A5F-25C348E80149}" name="Música23" displayName="Música23" ref="B56:E58" totalsRowCount="1" headerRowDxfId="25" totalsRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4266C49C-9654-40DC-9A5F-25C348E80149}" name="Música23" displayName="Música23" ref="B56:E58" totalsRowCount="1" headerRowDxfId="9" totalsRowDxfId="8">
   <autoFilter ref="B56:E57" xr:uid="{4266C49C-9654-40DC-9A5F-25C348E80149}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5D65B7CF-5AD3-4268-8BC1-C80E53FAD300}" name="CATEGORIA" totalsRowLabel="Total de Ganho" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{71F99B25-C26E-47AB-9E9C-02750042D3A6}" name="ESTIMADO" totalsRowFunction="custom" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="1" xr3:uid="{5D65B7CF-5AD3-4268-8BC1-C80E53FAD300}" name="CATEGORIA" totalsRowLabel="Total de Ganho" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{71F99B25-C26E-47AB-9E9C-02750042D3A6}" name="ESTIMADO" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>Música2[[#Totals],[ESTIMADO]]-C47</calculatedColumnFormula>
       <totalsRowFormula array="1">Música23[ESTIMADO]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{4D9DCACE-DC44-425B-B8B8-AC07284B5FAE}" name="REAL" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{AA5C067B-5ADD-4FAD-950B-40696FBD4EB4}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="3" xr3:uid="{4D9DCACE-DC44-425B-B8B8-AC07284B5FAE}" name="REAL" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{AA5C067B-5ADD-4FAD-950B-40696FBD4EB4}" name="ACIMA/ABAIXO" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>'Funcionários-Local-Extras-Marke'!$C57-'Funcionários-Local-Extras-Marke'!$D57</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3859,8 +3869,8 @@
   </sheetPr>
   <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3869,10 +3879,14 @@
     <col min="2" max="2" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="4.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="104" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3893,16 +3907,16 @@
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="40" t="s">
         <v>3</v>
       </c>
       <c r="F2" t="s">
@@ -3916,14 +3930,14 @@
       <c r="C3" s="14">
         <v>120000</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="48">
         <v>9.8500000000000004E-2</v>
       </c>
       <c r="E3" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C3-'Funcionários-Local-Extras-Marke'!$D3</f>
         <v>119999.90150000001</v>
       </c>
-      <c r="G3" s="52">
+      <c r="G3" s="105">
         <v>0.66500000000000004</v>
       </c>
     </row>
@@ -3934,7 +3948,7 @@
       <c r="C4" s="14">
         <v>120000</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="48">
         <v>9.8500000000000004E-2</v>
       </c>
       <c r="E4" s="15">
@@ -3949,7 +3963,7 @@
       <c r="C5" s="14">
         <v>120000</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="48">
         <v>9.8500000000000004E-2</v>
       </c>
       <c r="E5" s="15">
@@ -3964,7 +3978,7 @@
       <c r="C6" s="14">
         <v>120000</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="48">
         <v>9.8500000000000004E-2</v>
       </c>
       <c r="E6" s="15">
@@ -3979,7 +3993,7 @@
       <c r="C7" s="14">
         <v>120000</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="48">
         <v>9.8500000000000004E-2</v>
       </c>
       <c r="E7" s="15">
@@ -3988,13 +4002,13 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="26" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="14">
         <v>150000</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="48">
         <v>0.123</v>
       </c>
       <c r="E8" s="15">
@@ -4009,7 +4023,7 @@
       <c r="C9" s="14">
         <v>108000</v>
       </c>
-      <c r="D9" s="50">
+      <c r="D9" s="48">
         <v>8.8700000000000001E-2</v>
       </c>
       <c r="E9" s="15">
@@ -4024,7 +4038,7 @@
       <c r="C10" s="14">
         <v>108000</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="48">
         <v>8.8700000000000001E-2</v>
       </c>
       <c r="E10" s="15">
@@ -4039,7 +4053,7 @@
       <c r="C11" s="14">
         <v>108000</v>
       </c>
-      <c r="D11" s="50">
+      <c r="D11" s="48">
         <v>8.8700000000000001E-2</v>
       </c>
       <c r="E11" s="15">
@@ -4055,7 +4069,7 @@
       <c r="C12" s="14">
         <v>72000</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="48">
         <v>5.9200000000000003E-2</v>
       </c>
       <c r="E12" s="15">
@@ -4071,7 +4085,7 @@
       <c r="C13" s="14">
         <v>72000</v>
       </c>
-      <c r="D13" s="50">
+      <c r="D13" s="48">
         <v>5.9200000000000003E-2</v>
       </c>
       <c r="E13" s="15">
@@ -4081,45 +4095,45 @@
     </row>
     <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="36">
         <f>SUBTOTAL(109,Roupas[ESTIMADO ANUAL])</f>
         <v>1218000</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="39">
+      <c r="D14" s="49"/>
+      <c r="E14" s="37">
         <f>SUBTOTAL(109,Roupas[ACIMA/ABAIXO])</f>
         <v>1217999</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="62"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="85"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="59"/>
-    </row>
-    <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="82"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="23"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
     </row>
-    <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -4129,49 +4143,49 @@
       <c r="C18" s="18"/>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="47" t="s">
+      <c r="C19" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="46" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="14">
         <v>3000</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20" s="48">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="E20" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C20-'Funcionários-Local-Extras-Marke'!$D20</f>
         <v>2999.9659999999999</v>
       </c>
-      <c r="G20" s="52">
+      <c r="G20" s="105">
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="14">
         <v>1500</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21" s="48">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="E21" s="15">
@@ -4179,14 +4193,14 @@
         <v>1499.9825000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="14">
         <v>2400</v>
       </c>
-      <c r="D22" s="50">
+      <c r="D22" s="48">
         <v>2.75E-2</v>
       </c>
       <c r="E22" s="15">
@@ -4194,14 +4208,14 @@
         <v>2399.9724999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="14">
         <v>500</v>
       </c>
-      <c r="D23" s="50">
+      <c r="D23" s="48">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E23" s="15">
@@ -4209,14 +4223,14 @@
         <v>499.99950000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C24" s="14">
         <v>60000</v>
       </c>
-      <c r="D24" s="54">
+      <c r="D24" s="51">
         <v>0.67</v>
       </c>
       <c r="E24" s="15">
@@ -4224,14 +4238,14 @@
         <v>59999.33</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="13" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="14">
         <v>22000</v>
       </c>
-      <c r="D25" s="50">
+      <c r="D25" s="48">
         <v>0.25</v>
       </c>
       <c r="E25" s="15">
@@ -4239,14 +4253,14 @@
         <v>21999.75</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="14">
         <v>500</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="48">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E26" s="15">
@@ -4254,36 +4268,36 @@
         <v>499.99950000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="36">
         <f>SUBTOTAL(109,Festa[ESTIMADO ANUAL])</f>
         <v>89900</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="39">
+      <c r="D27" s="52"/>
+      <c r="E27" s="37">
         <f>SUBTOTAL(109,Festa[ACIMA/ABAIXO])</f>
         <v>89899</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="57" t="s">
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="59"/>
-    </row>
-    <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="63"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="65"/>
-    </row>
-    <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="82"/>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="86"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="88"/>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
@@ -4293,24 +4307,24 @@
       <c r="C30" s="18"/>
       <c r="E30" s="12"/>
     </row>
-    <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="47" t="s">
+      <c r="C31" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="47" t="s">
+      <c r="D31" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="48" t="s">
+      <c r="E31" s="46" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
       <c r="B32" s="13" t="s">
         <v>44</v>
@@ -4325,19 +4339,20 @@
         <f>'Funcionários-Local-Extras-Marke'!$C32-'Funcionários-Local-Extras-Marke'!$D32</f>
         <v>60000</v>
       </c>
-      <c r="G32" s="52">
+      <c r="G32" s="105">
         <v>0.2215</v>
       </c>
-      <c r="K32" s="52">
+      <c r="K32" s="108">
         <v>0.17499999999999999</v>
       </c>
-      <c r="L32" s="26">
+      <c r="L32" s="109">
         <v>2000000</v>
       </c>
-      <c r="M32" s="56">
+      <c r="M32" s="110">
         <f>L32*K32</f>
         <v>350000</v>
       </c>
+      <c r="N32" s="107"/>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="13" t="s">
@@ -4354,16 +4369,16 @@
         <f>'Funcionários-Local-Extras-Marke'!$C33-'Funcionários-Local-Extras-Marke'!$D33</f>
         <v>312500</v>
       </c>
-      <c r="K33" s="26">
+      <c r="K33" s="109">
         <v>130000</v>
       </c>
-      <c r="L33" s="26">
+      <c r="L33" s="109">
         <v>45000</v>
       </c>
-      <c r="M33" s="26">
+      <c r="M33" s="109">
         <v>440000</v>
       </c>
-      <c r="N33" s="27">
+      <c r="N33" s="111">
         <v>10000</v>
       </c>
     </row>
@@ -4383,24 +4398,24 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="38">
+      <c r="C35" s="36">
         <f>SUBTOTAL(109,Música[ESTIMADO ANUAL])</f>
         <v>402500</v>
       </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="39">
+      <c r="D35" s="36"/>
+      <c r="E35" s="37">
         <f>SUBTOTAL(109,Música[ACIMA/ABAIXO])</f>
         <v>402500</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="66"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="68"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="91"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
@@ -4416,16 +4431,16 @@
       <c r="A38" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="47" t="s">
+      <c r="D38" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="48" t="s">
+      <c r="E38" s="46" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4436,14 +4451,14 @@
       <c r="C39" s="25">
         <v>5000</v>
       </c>
-      <c r="D39" s="50">
+      <c r="D39" s="48">
         <v>4.1500000000000002E-2</v>
       </c>
       <c r="E39" s="15">
         <f>'Funcionários-Local-Extras-Marke'!$C39-'Funcionários-Local-Extras-Marke'!$D39</f>
         <v>4999.9584999999997</v>
       </c>
-      <c r="G39" s="52">
+      <c r="G39" s="105">
         <v>6.5500000000000003E-2</v>
       </c>
     </row>
@@ -4454,7 +4469,7 @@
       <c r="C40" s="14">
         <v>5000</v>
       </c>
-      <c r="D40" s="50">
+      <c r="D40" s="48">
         <v>4.1500000000000002E-2</v>
       </c>
       <c r="E40" s="15">
@@ -4469,7 +4484,7 @@
       <c r="C41" s="14">
         <v>5000</v>
       </c>
-      <c r="D41" s="50">
+      <c r="D41" s="48">
         <v>4.1500000000000002E-2</v>
       </c>
       <c r="E41" s="15">
@@ -4484,7 +4499,7 @@
       <c r="C42" s="14">
         <v>800</v>
       </c>
-      <c r="D42" s="50">
+      <c r="D42" s="48">
         <v>1E-4</v>
       </c>
       <c r="E42" s="15">
@@ -4499,7 +4514,7 @@
       <c r="C43" s="25">
         <v>30000</v>
       </c>
-      <c r="D43" s="50">
+      <c r="D43" s="48">
         <v>0.25</v>
       </c>
       <c r="E43" s="15">
@@ -4509,13 +4524,13 @@
     </row>
     <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="26" t="s">
         <v>32</v>
       </c>
       <c r="C44" s="25">
         <v>25000</v>
       </c>
-      <c r="D44" s="50">
+      <c r="D44" s="48">
         <v>0.21</v>
       </c>
       <c r="E44" s="15">
@@ -4530,7 +4545,7 @@
       <c r="C45" s="14">
         <v>50000</v>
       </c>
-      <c r="D45" s="50">
+      <c r="D45" s="48">
         <v>0.41399999999999998</v>
       </c>
       <c r="E45" s="15">
@@ -4539,28 +4554,28 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="37" t="s">
+      <c r="B46" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="43">
+      <c r="C46" s="41">
         <f>SUBTOTAL(109,Impressão[ESTIMADO])</f>
         <v>120800</v>
       </c>
-      <c r="D46" s="53"/>
-      <c r="E46" s="39">
+      <c r="D46" s="50"/>
+      <c r="E46" s="37">
         <f>SUBTOTAL(109,Impressão[ACIMA/ABAIXO])</f>
         <v>120799.00140000001</v>
       </c>
-      <c r="G46" s="69">
+      <c r="G46" s="106">
         <f>SUM(G3+G20+G32+G39)</f>
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="35">
+      <c r="C47" s="33">
         <f>Impressão[[#Totals],[ESTIMADO]]+Música[[#Totals],[ESTIMADO ANUAL]]+Festa[[#Totals],[ESTIMADO ANUAL]]+Roupas[[#Totals],[ESTIMADO ANUAL]]</f>
         <v>1831200</v>
       </c>
@@ -4569,24 +4584,24 @@
     </row>
     <row r="48" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="30"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="32"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="30"/>
     </row>
     <row r="50" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="49" t="s">
+      <c r="C50" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="49" t="s">
+      <c r="D50" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="48" t="s">
+      <c r="E50" s="46" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4594,10 +4609,10 @@
       <c r="B51" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="33">
+      <c r="C51" s="31">
         <v>30000000</v>
       </c>
-      <c r="D51" s="33">
+      <c r="D51" s="31">
         <v>0</v>
       </c>
       <c r="E51" s="15">
@@ -4609,11 +4624,11 @@
       <c r="B52" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="36">
+      <c r="C52" s="34">
         <f>C51*8%</f>
         <v>2400000</v>
       </c>
-      <c r="D52" s="33">
+      <c r="D52" s="31">
         <v>0</v>
       </c>
       <c r="E52" s="15">
@@ -4622,18 +4637,18 @@
       </c>
     </row>
     <row r="53" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="44" t="s">
+      <c r="B53" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="45">
+      <c r="C53" s="43">
         <f>C52</f>
         <v>2400000</v>
       </c>
-      <c r="D53" s="45">
+      <c r="D53" s="43">
         <f>SUBTOTAL(109,Música2[REAL])</f>
         <v>0</v>
       </c>
-      <c r="E53" s="46">
+      <c r="E53" s="44">
         <f>SUBTOTAL(109,Música2[ACIMA/ABAIXO])</f>
         <v>32400000</v>
       </c>
@@ -4642,24 +4657,24 @@
       <c r="C54" s="16"/>
     </row>
     <row r="55" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="32"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="30"/>
     </row>
     <row r="56" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="40" t="s">
+      <c r="B56" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D56" s="49" t="s">
+      <c r="D56" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="48" t="s">
+      <c r="E56" s="46" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4667,11 +4682,11 @@
       <c r="B57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="33">
+      <c r="C57" s="31">
         <f>Música2[[#Totals],[ESTIMADO]]-C47</f>
         <v>568800</v>
       </c>
-      <c r="D57" s="33">
+      <c r="D57" s="31">
         <v>0</v>
       </c>
       <c r="E57" s="15">
@@ -4680,18 +4695,18 @@
       </c>
     </row>
     <row r="58" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="44" t="s">
+      <c r="B58" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C58" s="45" cm="1">
+      <c r="C58" s="43" cm="1">
         <f t="array" ref="C58">Música23[ESTIMADO]</f>
         <v>568800</v>
       </c>
-      <c r="D58" s="45">
+      <c r="D58" s="43">
         <f>SUBTOTAL(109,Música23[REAL])</f>
         <v>0</v>
       </c>
-      <c r="E58" s="46">
+      <c r="E58" s="44">
         <f>SUBTOTAL(109,Música23[ACIMA/ABAIXO])</f>
         <v>568800</v>
       </c>
@@ -4789,261 +4804,261 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E16DBF3-7F69-4F61-9D3E-EFC2AAD82ED6}">
   <dimension ref="B2:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="70"/>
-    <col min="2" max="2" width="21.85546875" style="70" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="70" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="70" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="70" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="70"/>
-    <col min="7" max="7" width="12.28515625" style="70" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="70"/>
-    <col min="10" max="10" width="4.42578125" style="70" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="70"/>
+    <col min="1" max="1" width="9.140625" style="53"/>
+    <col min="2" max="2" width="21.85546875" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="53" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="53"/>
+    <col min="7" max="7" width="12.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" style="53"/>
+    <col min="10" max="10" width="4.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="54" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="72">
+      <c r="B3" s="55">
         <f>'Funcionários-Local-Extras-Marke'!G3</f>
         <v>0.66500000000000004</v>
       </c>
-      <c r="C3" s="72">
+      <c r="C3" s="55">
         <f>'Funcionários-Local-Extras-Marke'!G20</f>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="D3" s="72">
+      <c r="D3" s="55">
         <f>'Funcionários-Local-Extras-Marke'!G32</f>
         <v>0.2215</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="55">
         <f>'Funcionários-Local-Extras-Marke'!G39</f>
         <v>6.5500000000000003E-2</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="74"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="75"/>
+      <c r="B35" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="96"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="96"/>
+      <c r="M35" s="97"/>
     </row>
     <row r="36" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="93" t="s">
+      <c r="B36" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94" t="s">
+      <c r="C36" s="68"/>
+      <c r="D36" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94" t="s">
-        <v>66</v>
-      </c>
-      <c r="H36" s="95"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="K36" s="95"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="96"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="70"/>
     </row>
     <row r="37" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="97" t="str">
+      <c r="B37" s="71" t="str">
         <f>'Funcionários-Local-Extras-Marke'!B1</f>
         <v>Funcionários</v>
       </c>
-      <c r="C37" s="77"/>
-      <c r="D37" s="100">
+      <c r="C37" s="57"/>
+      <c r="D37" s="74">
         <f>Roupas[[#Totals],[ESTIMADO ANUAL]]</f>
         <v>1218000</v>
       </c>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="103">
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="77">
         <f>'Funcionários-Local-Extras-Marke'!G3</f>
         <v>0.66500000000000004</v>
       </c>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="106"/>
-      <c r="K37" s="88"/>
-      <c r="L37" s="88"/>
-      <c r="M37" s="89"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="98"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="99"/>
+      <c r="M37" s="100"/>
     </row>
     <row r="38" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="98" t="str">
+      <c r="B38" s="72" t="str">
         <f>'Funcionários-Local-Extras-Marke'!B18</f>
         <v>Local Físico*</v>
       </c>
-      <c r="C38" s="77"/>
-      <c r="D38" s="101">
+      <c r="C38" s="57"/>
+      <c r="D38" s="75">
         <f>Festa[[#Totals],[ESTIMADO ANUAL]]</f>
         <v>89900</v>
       </c>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="104">
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="78">
         <f>'Funcionários-Local-Extras-Marke'!G20</f>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="107"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="79"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="101"/>
+      <c r="K38" s="102"/>
+      <c r="L38" s="102"/>
+      <c r="M38" s="103"/>
     </row>
     <row r="39" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="98" t="str">
+      <c r="B39" s="72" t="str">
         <f>'Funcionários-Local-Extras-Marke'!B30</f>
         <v>Gastos com Veículos</v>
       </c>
-      <c r="C39" s="77"/>
-      <c r="D39" s="101">
+      <c r="C39" s="57"/>
+      <c r="D39" s="75">
         <f>Música[[#Totals],[ESTIMADO ANUAL]]</f>
         <v>402500</v>
       </c>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="104">
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="78">
         <f>'Funcionários-Local-Extras-Marke'!G32</f>
         <v>0.2215</v>
       </c>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="107"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="78"/>
-      <c r="M39" s="79"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="101"/>
+      <c r="K39" s="102"/>
+      <c r="L39" s="102"/>
+      <c r="M39" s="103"/>
     </row>
     <row r="40" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="99" t="str">
+      <c r="B40" s="73" t="str">
         <f>'Funcionários-Local-Extras-Marke'!B37</f>
         <v>Marketing</v>
       </c>
-      <c r="C40" s="77"/>
-      <c r="D40" s="102">
+      <c r="C40" s="57"/>
+      <c r="D40" s="76">
         <f>Impressão[[#Totals],[ESTIMADO]]</f>
         <v>120800</v>
       </c>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="105">
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="79">
         <f>'Funcionários-Local-Extras-Marke'!G39</f>
         <v>6.5500000000000003E-2</v>
       </c>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="108"/>
-      <c r="K40" s="91"/>
-      <c r="L40" s="91"/>
-      <c r="M40" s="92"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="93"/>
+      <c r="L40" s="93"/>
+      <c r="M40" s="94"/>
     </row>
     <row r="41" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="80" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="81"/>
-      <c r="D41" s="82">
+      <c r="B41" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="59"/>
+      <c r="D41" s="60">
         <f>SUM(D37:D40)</f>
         <v>1831200</v>
       </c>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="83">
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="61">
         <f>SUM(G37:G40)</f>
         <v>1</v>
       </c>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="84"/>
-      <c r="L41" s="84"/>
-      <c r="M41" s="85"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="63"/>
     </row>
     <row r="42" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="76"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="86"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="64"/>
     </row>
     <row r="43" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" s="87"/>
-      <c r="D43" s="100">
+      <c r="B43" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="65"/>
+      <c r="D43" s="74">
         <f>'Funcionários-Local-Extras-Marke'!C52</f>
         <v>2400000</v>
       </c>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="106"/>
-      <c r="K43" s="88"/>
-      <c r="L43" s="88"/>
-      <c r="M43" s="89"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="98"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="99"/>
+      <c r="M43" s="100"/>
     </row>
     <row r="44" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="99" t="str">
+      <c r="B44" s="73" t="str">
         <f>'Funcionários-Local-Extras-Marke'!B55</f>
         <v>PPR</v>
       </c>
-      <c r="C44" s="90"/>
-      <c r="D44" s="102">
+      <c r="C44" s="66"/>
+      <c r="D44" s="76">
         <f>D43-D41</f>
         <v>568800</v>
       </c>
-      <c r="E44" s="90"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="90"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="108"/>
-      <c r="K44" s="91"/>
-      <c r="L44" s="91"/>
-      <c r="M44" s="92"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="92"/>
+      <c r="K44" s="93"/>
+      <c r="L44" s="93"/>
+      <c r="M44" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5061,9 +5076,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5237,19 +5255,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C15B775D-9D4C-4008-98F9-E820ECDFE507}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{953F9F67-1E60-41F1-8D0A-2C9144BB5791}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5273,9 +5287,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{953F9F67-1E60-41F1-8D0A-2C9144BB5791}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C15B775D-9D4C-4008-98F9-E820ECDFE507}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Custos para Edição.xlsx
+++ b/Custos para Edição.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cássio\Documents\SENAC\PROJETO_INTTEGRADOR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Publica\TI0320\Cassio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD7C884-A179-44A6-A5A7-D9BE52E0CC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62B9EC16-7C0B-4051-BD8F-CA1485575C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Funcionários-Local-Extras-Marke" sheetId="2" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
   <si>
     <t>CATEGORIA</t>
   </si>
@@ -313,6 +313,24 @@
   </si>
   <si>
     <t>Escritório</t>
+  </si>
+  <si>
+    <t>Valores correspondente aos gastos com os funcionários (Salário &amp; Encargos)</t>
+  </si>
+  <si>
+    <t>Valores correspondente aos gastos do edifício &amp; material de escritório &amp; Seguro predial</t>
+  </si>
+  <si>
+    <t>Valores corespondente aos veículos (Taxa de importação &amp; traslado &amp; Seguro &amp; Documentação)</t>
+  </si>
+  <si>
+    <t>Valores correspondente a divulgação da marca (empresa)</t>
+  </si>
+  <si>
+    <t>Valor estimado para venda anual</t>
+  </si>
+  <si>
+    <t>Valor que se basea em lucro para efetivar o PPR</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1200,7 @@
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1313,6 +1331,15 @@
     <xf numFmtId="10" fontId="37" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="37" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="37" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1332,13 +1359,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1350,31 +1377,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="20% - Ênfase1" xfId="6" builtinId="30" customBuiltin="1"/>
@@ -3879,7 +3907,7 @@
     <col min="2" max="2" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="4.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="104" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" style="80" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -3937,7 +3965,7 @@
         <f>'Funcionários-Local-Extras-Marke'!$C3-'Funcionários-Local-Extras-Marke'!$D3</f>
         <v>119999.90150000001</v>
       </c>
-      <c r="G3" s="105">
+      <c r="G3" s="81">
         <v>0.66500000000000004</v>
       </c>
     </row>
@@ -4110,21 +4138,21 @@
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="85"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="94"/>
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="82"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="91"/>
     </row>
     <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
@@ -4174,7 +4202,7 @@
         <f>'Funcionários-Local-Extras-Marke'!$C20-'Funcionários-Local-Extras-Marke'!$D20</f>
         <v>2999.9659999999999</v>
       </c>
-      <c r="G20" s="105">
+      <c r="G20" s="81">
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
@@ -4284,18 +4312,18 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="82"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="91"/>
     </row>
     <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="86"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="88"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="97"/>
     </row>
     <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
@@ -4339,20 +4367,20 @@
         <f>'Funcionários-Local-Extras-Marke'!$C32-'Funcionários-Local-Extras-Marke'!$D32</f>
         <v>60000</v>
       </c>
-      <c r="G32" s="105">
+      <c r="G32" s="81">
         <v>0.2215</v>
       </c>
-      <c r="K32" s="108">
+      <c r="K32" s="84">
         <v>0.17499999999999999</v>
       </c>
-      <c r="L32" s="109">
+      <c r="L32" s="85">
         <v>2000000</v>
       </c>
-      <c r="M32" s="110">
+      <c r="M32" s="86">
         <f>L32*K32</f>
         <v>350000</v>
       </c>
-      <c r="N32" s="107"/>
+      <c r="N32" s="83"/>
     </row>
     <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="13" t="s">
@@ -4369,16 +4397,16 @@
         <f>'Funcionários-Local-Extras-Marke'!$C33-'Funcionários-Local-Extras-Marke'!$D33</f>
         <v>312500</v>
       </c>
-      <c r="K33" s="109">
+      <c r="K33" s="85">
         <v>130000</v>
       </c>
-      <c r="L33" s="109">
+      <c r="L33" s="85">
         <v>45000</v>
       </c>
-      <c r="M33" s="109">
+      <c r="M33" s="85">
         <v>440000</v>
       </c>
-      <c r="N33" s="111">
+      <c r="N33" s="87">
         <v>10000</v>
       </c>
     </row>
@@ -4412,10 +4440,10 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="89"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="91"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="100"/>
     </row>
     <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
@@ -4458,7 +4486,7 @@
         <f>'Funcionários-Local-Extras-Marke'!$C39-'Funcionários-Local-Extras-Marke'!$D39</f>
         <v>4999.9584999999997</v>
       </c>
-      <c r="G39" s="105">
+      <c r="G39" s="81">
         <v>6.5500000000000003E-2</v>
       </c>
     </row>
@@ -4566,7 +4594,7 @@
         <f>SUBTOTAL(109,Impressão[ACIMA/ABAIXO])</f>
         <v>120799.00140000001</v>
       </c>
-      <c r="G46" s="106">
+      <c r="G46" s="82">
         <f>SUM(G3+G20+G32+G39)</f>
         <v>1</v>
       </c>
@@ -4802,10 +4830,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E16DBF3-7F69-4F61-9D3E-EFC2AAD82ED6}">
-  <dimension ref="B2:M44"/>
+  <dimension ref="A2:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J43" sqref="J43:M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4819,7 +4847,9 @@
     <col min="7" max="7" width="12.28515625" style="53" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9.140625" style="53"/>
     <col min="10" max="10" width="4.42578125" style="53" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="53"/>
+    <col min="11" max="12" width="9.140625" style="53"/>
+    <col min="13" max="13" width="17.140625" style="53" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
@@ -4854,24 +4884,24 @@
         <v>6.5500000000000003E-2</v>
       </c>
     </row>
-    <row r="34" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="95" t="s">
+    <row r="34" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="96"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="97"/>
-    </row>
-    <row r="36" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="106"/>
+    </row>
+    <row r="36" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="67" t="s">
         <v>0</v>
       </c>
@@ -4893,7 +4923,8 @@
       <c r="L36" s="69"/>
       <c r="M36" s="70"/>
     </row>
-    <row r="37" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="88"/>
       <c r="B37" s="71" t="str">
         <f>'Funcionários-Local-Extras-Marke'!B1</f>
         <v>Funcionários</v>
@@ -4911,12 +4942,14 @@
       </c>
       <c r="H37" s="57"/>
       <c r="I37" s="57"/>
-      <c r="J37" s="98"/>
-      <c r="K37" s="99"/>
-      <c r="L37" s="99"/>
-      <c r="M37" s="100"/>
-    </row>
-    <row r="38" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J37" s="107" t="s">
+        <v>68</v>
+      </c>
+      <c r="K37" s="108"/>
+      <c r="L37" s="108"/>
+      <c r="M37" s="109"/>
+    </row>
+    <row r="38" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="72" t="str">
         <f>'Funcionários-Local-Extras-Marke'!B18</f>
         <v>Local Físico*</v>
@@ -4934,12 +4967,14 @@
       </c>
       <c r="H38" s="57"/>
       <c r="I38" s="57"/>
-      <c r="J38" s="101"/>
-      <c r="K38" s="102"/>
-      <c r="L38" s="102"/>
-      <c r="M38" s="103"/>
-    </row>
-    <row r="39" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J38" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="K38" s="111"/>
+      <c r="L38" s="111"/>
+      <c r="M38" s="112"/>
+    </row>
+    <row r="39" spans="1:13" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="72" t="str">
         <f>'Funcionários-Local-Extras-Marke'!B30</f>
         <v>Gastos com Veículos</v>
@@ -4957,12 +4992,14 @@
       </c>
       <c r="H39" s="57"/>
       <c r="I39" s="57"/>
-      <c r="J39" s="101"/>
-      <c r="K39" s="102"/>
-      <c r="L39" s="102"/>
-      <c r="M39" s="103"/>
-    </row>
-    <row r="40" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J39" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="K39" s="111"/>
+      <c r="L39" s="111"/>
+      <c r="M39" s="112"/>
+    </row>
+    <row r="40" spans="1:13" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="73" t="str">
         <f>'Funcionários-Local-Extras-Marke'!B37</f>
         <v>Marketing</v>
@@ -4980,12 +5017,14 @@
       </c>
       <c r="H40" s="57"/>
       <c r="I40" s="57"/>
-      <c r="J40" s="92"/>
-      <c r="K40" s="93"/>
-      <c r="L40" s="93"/>
-      <c r="M40" s="94"/>
-    </row>
-    <row r="41" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J40" s="101" t="s">
+        <v>71</v>
+      </c>
+      <c r="K40" s="102"/>
+      <c r="L40" s="102"/>
+      <c r="M40" s="103"/>
+    </row>
+    <row r="41" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="58" t="s">
         <v>62</v>
       </c>
@@ -5007,7 +5046,7 @@
       <c r="L41" s="62"/>
       <c r="M41" s="63"/>
     </row>
-    <row r="42" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="56"/>
       <c r="C42" s="57"/>
       <c r="D42" s="57"/>
@@ -5021,7 +5060,7 @@
       <c r="L42" s="57"/>
       <c r="M42" s="64"/>
     </row>
-    <row r="43" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="71" t="s">
         <v>66</v>
       </c>
@@ -5035,12 +5074,14 @@
       <c r="G43" s="65"/>
       <c r="H43" s="65"/>
       <c r="I43" s="65"/>
-      <c r="J43" s="98"/>
-      <c r="K43" s="99"/>
-      <c r="L43" s="99"/>
-      <c r="M43" s="100"/>
-    </row>
-    <row r="44" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J43" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="K43" s="114"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="115"/>
+    </row>
+    <row r="44" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="73" t="str">
         <f>'Funcionários-Local-Extras-Marke'!B55</f>
         <v>PPR</v>
@@ -5055,10 +5096,12 @@
       <c r="G44" s="66"/>
       <c r="H44" s="66"/>
       <c r="I44" s="66"/>
-      <c r="J44" s="92"/>
-      <c r="K44" s="93"/>
-      <c r="L44" s="93"/>
-      <c r="M44" s="94"/>
+      <c r="J44" s="101" t="s">
+        <v>73</v>
+      </c>
+      <c r="K44" s="102"/>
+      <c r="L44" s="102"/>
+      <c r="M44" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5071,7 +5114,8 @@
     <mergeCell ref="J43:M43"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5085,6 +5129,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100438D081558299543A3D90C741E9D9A9A" ma:contentTypeVersion="8" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="6307e9d03a483d8aaaad55333a2d33a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a4d4739c-b3d2-4350-8f47-3b8a709ccb2d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ddc1d36326b7f09edaeafea200ec074" ns2:_="">
     <xsd:import namespace="a4d4739c-b3d2-4350-8f47-3b8a709ccb2d"/>
@@ -5254,12 +5304,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{953F9F67-1E60-41F1-8D0A-2C9144BB5791}">
   <ds:schemaRefs>
@@ -5269,6 +5313,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C15B775D-9D4C-4008-98F9-E820ECDFE507}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97900851-B275-4B05-8F5D-F815934E192B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5284,13 +5337,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C15B775D-9D4C-4008-98F9-E820ECDFE507}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>